--- a/oregon_deq/source_data/or_deq_impact_factors_for_wic.xlsx
+++ b/oregon_deq/source_data/or_deq_impact_factors_for_wic.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="258">
   <si>
     <t>GaBi ts</t>
   </si>
@@ -531,12 +531,6 @@
     <t>WSI, OECD+BRIC average for unspecified water [m³ equiv.]</t>
   </si>
   <si>
-    <t>UMNE vs OPC</t>
-  </si>
-  <si>
-    <t>Glass_endOfLife_recyclingPozzotive</t>
-  </si>
-  <si>
     <t>Waste Impact Calculator &lt;LC&gt; [WIC]</t>
   </si>
   <si>
@@ -728,11 +722,83 @@
   <si>
     <t>Nonrecyclables_endOfLife_landfilling_transport</t>
   </si>
+  <si>
+    <t xml:space="preserve">HDPE_endOfLife_incinerationER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDPE_endOfLife_landfilling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDPE_endOfLife_recycling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDPE_production_production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPE_endOfLife_incinerationER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPE_endOfLife_landfilling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPE_endOfLife_recycling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPE_production_production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP_endOfLife_incinerationER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP_endOfLife_landfilling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP_endOfLife_recycling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP_production_production </t>
+  </si>
+  <si>
+    <t>PP_endOfLife_incinerationER_transport</t>
+  </si>
+  <si>
+    <t>PP_endOfLife_landfilling_transport</t>
+  </si>
+  <si>
+    <t>PP_endOfLife_recyclingGeneric_transport</t>
+  </si>
+  <si>
+    <t>PP_production_production_transport</t>
+  </si>
+  <si>
+    <t>HDPE_endOfLife_incinerationER_transport</t>
+  </si>
+  <si>
+    <t>HDPE_endOfLife_landfilling_transport</t>
+  </si>
+  <si>
+    <t>HDPE_endOfLife_recyclingGeneric_transport</t>
+  </si>
+  <si>
+    <t>HDPE_production_production_transport</t>
+  </si>
+  <si>
+    <t>LDPE_endOfLife_incinerationER_transport</t>
+  </si>
+  <si>
+    <t>LDPE_endOfLife_landfilling_transport</t>
+  </si>
+  <si>
+    <t>LDPE_endOfLife_recyclingGeneric_transport</t>
+  </si>
+  <si>
+    <t>LDPE_production_production_transport</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,28 +1112,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN98"/>
+  <dimension ref="A1:FP98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="EM9" sqref="EM9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="EM8" sqref="EM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="143" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:172" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1084,12 +1153,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1">
         <v>43847.713530092595</v>
@@ -1098,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1118,12 +1187,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:172" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>14</v>
       </c>
@@ -1533,10 +1602,79 @@
         <v>14</v>
       </c>
       <c r="EN8" t="s">
-        <v>170</v>
+        <v>14</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>14</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>14</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>14</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:172" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>15</v>
       </c>
@@ -1628,10 +1766,10 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AN9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AO9" t="s">
         <v>45</v>
@@ -1721,25 +1859,25 @@
         <v>73</v>
       </c>
       <c r="BR9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT9" t="s">
         <v>174</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BU9" t="s">
         <v>175</v>
       </c>
-      <c r="BT9" t="s">
+      <c r="BV9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX9" t="s">
         <v>176</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>234</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>178</v>
       </c>
       <c r="BY9" t="s">
         <v>74</v>
@@ -1802,34 +1940,34 @@
         <v>93</v>
       </c>
       <c r="CS9" t="s">
+        <v>177</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>178</v>
+      </c>
+      <c r="CU9" t="s">
         <v>179</v>
       </c>
-      <c r="CT9" t="s">
+      <c r="CV9" t="s">
         <v>180</v>
       </c>
-      <c r="CU9" t="s">
+      <c r="CW9" t="s">
         <v>181</v>
       </c>
-      <c r="CV9" t="s">
+      <c r="CX9" t="s">
         <v>182</v>
       </c>
-      <c r="CW9" t="s">
+      <c r="CY9" t="s">
         <v>183</v>
       </c>
-      <c r="CX9" t="s">
+      <c r="CZ9" t="s">
         <v>184</v>
       </c>
-      <c r="CY9" t="s">
+      <c r="DA9" t="s">
         <v>185</v>
       </c>
-      <c r="CZ9" t="s">
-        <v>186</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>187</v>
-      </c>
       <c r="DB9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DC9" t="s">
         <v>94</v>
@@ -1880,13 +2018,13 @@
         <v>109</v>
       </c>
       <c r="DS9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="DT9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="DU9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="DV9" t="s">
         <v>110</v>
@@ -1907,46 +2045,119 @@
         <v>115</v>
       </c>
       <c r="EB9" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>188</v>
+      </c>
+      <c r="ED9" t="s">
         <v>189</v>
       </c>
-      <c r="EC9" t="s">
+      <c r="EE9" t="s">
         <v>190</v>
       </c>
-      <c r="ED9" t="s">
+      <c r="EF9" t="s">
         <v>191</v>
       </c>
-      <c r="EE9" t="s">
+      <c r="EG9" t="s">
         <v>192</v>
       </c>
-      <c r="EF9" t="s">
+      <c r="EH9" t="s">
         <v>193</v>
       </c>
-      <c r="EG9" t="s">
+      <c r="EI9" t="s">
         <v>194</v>
       </c>
-      <c r="EH9" t="s">
+      <c r="EJ9" t="s">
         <v>195</v>
       </c>
-      <c r="EI9" t="s">
+      <c r="EK9" t="s">
         <v>196</v>
       </c>
-      <c r="EJ9" t="s">
+      <c r="EL9" t="s">
         <v>197</v>
       </c>
-      <c r="EK9" t="s">
-        <v>198</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>199</v>
-      </c>
       <c r="EM9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="EN9" t="s">
-        <v>171</v>
+        <v>234</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>235</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>236</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>237</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>238</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>239</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>241</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>242</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>243</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>244</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>245</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>246</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>247</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>248</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>249</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>250</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>251</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>252</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>253</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>254</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>255</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>256</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>257</v>
+      </c>
+      <c r="FP9" t="e">
+        <f>IF(G9=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -2376,8 +2587,84 @@
       <c r="EM10">
         <v>0</v>
       </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10">
+        <v>0</v>
+      </c>
+      <c r="EP10">
+        <v>0</v>
+      </c>
+      <c r="EQ10">
+        <v>0</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
+      </c>
+      <c r="ES10">
+        <v>0</v>
+      </c>
+      <c r="ET10">
+        <v>0</v>
+      </c>
+      <c r="EU10">
+        <v>0</v>
+      </c>
+      <c r="EV10">
+        <v>0</v>
+      </c>
+      <c r="EW10">
+        <v>0</v>
+      </c>
+      <c r="EX10">
+        <v>0</v>
+      </c>
+      <c r="EY10">
+        <v>0</v>
+      </c>
+      <c r="EZ10">
+        <v>0</v>
+      </c>
+      <c r="FA10">
+        <v>0</v>
+      </c>
+      <c r="FB10">
+        <v>0</v>
+      </c>
+      <c r="FC10">
+        <v>0</v>
+      </c>
+      <c r="FD10">
+        <v>0</v>
+      </c>
+      <c r="FE10">
+        <v>0</v>
+      </c>
+      <c r="FF10">
+        <v>0</v>
+      </c>
+      <c r="FG10">
+        <v>0</v>
+      </c>
+      <c r="FH10">
+        <v>0</v>
+      </c>
+      <c r="FI10">
+        <v>0</v>
+      </c>
+      <c r="FJ10">
+        <v>0</v>
+      </c>
+      <c r="FK10">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="e">
+        <f>IF(G10=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:172" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>
@@ -2804,22 +3091,98 @@
       <c r="EM11">
         <v>0</v>
       </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11">
+        <v>0</v>
+      </c>
+      <c r="EQ11">
+        <v>0</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
+      </c>
+      <c r="ES11">
+        <v>0</v>
+      </c>
+      <c r="ET11">
+        <v>0</v>
+      </c>
+      <c r="EU11">
+        <v>0</v>
+      </c>
+      <c r="EV11">
+        <v>0</v>
+      </c>
+      <c r="EW11">
+        <v>0</v>
+      </c>
+      <c r="EX11">
+        <v>0</v>
+      </c>
+      <c r="EY11">
+        <v>0</v>
+      </c>
+      <c r="EZ11">
+        <v>0</v>
+      </c>
+      <c r="FA11">
+        <v>0</v>
+      </c>
+      <c r="FB11">
+        <v>0</v>
+      </c>
+      <c r="FC11">
+        <v>0</v>
+      </c>
+      <c r="FD11">
+        <v>0</v>
+      </c>
+      <c r="FE11">
+        <v>0</v>
+      </c>
+      <c r="FF11">
+        <v>0</v>
+      </c>
+      <c r="FG11">
+        <v>0</v>
+      </c>
+      <c r="FH11">
+        <v>0</v>
+      </c>
+      <c r="FI11">
+        <v>0</v>
+      </c>
+      <c r="FJ11">
+        <v>0</v>
+      </c>
+      <c r="FK11">
+        <v>0</v>
+      </c>
+      <c r="FP11" t="e">
+        <f>IF(G11=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:172" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3229,19 +3592,95 @@
       <c r="EM12">
         <v>0</v>
       </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12">
+        <v>0</v>
+      </c>
+      <c r="EQ12">
+        <v>0</v>
+      </c>
+      <c r="ER12">
+        <v>0</v>
+      </c>
+      <c r="ES12">
+        <v>0</v>
+      </c>
+      <c r="ET12">
+        <v>0</v>
+      </c>
+      <c r="EU12">
+        <v>0</v>
+      </c>
+      <c r="EV12">
+        <v>0</v>
+      </c>
+      <c r="EW12">
+        <v>0</v>
+      </c>
+      <c r="EX12">
+        <v>0</v>
+      </c>
+      <c r="EY12">
+        <v>0</v>
+      </c>
+      <c r="EZ12">
+        <v>0</v>
+      </c>
+      <c r="FA12">
+        <v>0</v>
+      </c>
+      <c r="FB12">
+        <v>0</v>
+      </c>
+      <c r="FC12">
+        <v>0</v>
+      </c>
+      <c r="FD12">
+        <v>0</v>
+      </c>
+      <c r="FE12">
+        <v>0</v>
+      </c>
+      <c r="FF12">
+        <v>0</v>
+      </c>
+      <c r="FG12">
+        <v>0</v>
+      </c>
+      <c r="FH12">
+        <v>0</v>
+      </c>
+      <c r="FI12">
+        <v>0</v>
+      </c>
+      <c r="FJ12">
+        <v>0</v>
+      </c>
+      <c r="FK12">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="e">
+        <f>IF(G12=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:172" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3651,8 +4090,84 @@
       <c r="EM13">
         <v>0</v>
       </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13">
+        <v>0</v>
+      </c>
+      <c r="EQ13">
+        <v>0</v>
+      </c>
+      <c r="ER13">
+        <v>0</v>
+      </c>
+      <c r="ES13">
+        <v>0</v>
+      </c>
+      <c r="ET13">
+        <v>0</v>
+      </c>
+      <c r="EU13">
+        <v>0</v>
+      </c>
+      <c r="EV13">
+        <v>0</v>
+      </c>
+      <c r="EW13">
+        <v>0</v>
+      </c>
+      <c r="EX13">
+        <v>0</v>
+      </c>
+      <c r="EY13">
+        <v>0</v>
+      </c>
+      <c r="EZ13">
+        <v>0</v>
+      </c>
+      <c r="FA13">
+        <v>0</v>
+      </c>
+      <c r="FB13">
+        <v>0</v>
+      </c>
+      <c r="FC13">
+        <v>0</v>
+      </c>
+      <c r="FD13">
+        <v>0</v>
+      </c>
+      <c r="FE13">
+        <v>0</v>
+      </c>
+      <c r="FF13">
+        <v>0</v>
+      </c>
+      <c r="FG13">
+        <v>0</v>
+      </c>
+      <c r="FH13">
+        <v>0</v>
+      </c>
+      <c r="FI13">
+        <v>0</v>
+      </c>
+      <c r="FJ13">
+        <v>0</v>
+      </c>
+      <c r="FK13">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="e">
+        <f>IF(G13=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:172" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>126</v>
       </c>
@@ -4070,13 +4585,89 @@
       <c r="EM14">
         <v>0</v>
       </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14">
+        <v>0</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
+      </c>
+      <c r="ES14">
+        <v>0</v>
+      </c>
+      <c r="ET14">
+        <v>0</v>
+      </c>
+      <c r="EU14">
+        <v>0</v>
+      </c>
+      <c r="EV14">
+        <v>0</v>
+      </c>
+      <c r="EW14">
+        <v>0</v>
+      </c>
+      <c r="EX14">
+        <v>0</v>
+      </c>
+      <c r="EY14">
+        <v>0</v>
+      </c>
+      <c r="EZ14">
+        <v>0</v>
+      </c>
+      <c r="FA14">
+        <v>0</v>
+      </c>
+      <c r="FB14">
+        <v>0</v>
+      </c>
+      <c r="FC14">
+        <v>0</v>
+      </c>
+      <c r="FD14">
+        <v>0</v>
+      </c>
+      <c r="FE14">
+        <v>0</v>
+      </c>
+      <c r="FF14">
+        <v>0</v>
+      </c>
+      <c r="FG14">
+        <v>0</v>
+      </c>
+      <c r="FH14">
+        <v>0</v>
+      </c>
+      <c r="FI14">
+        <v>0</v>
+      </c>
+      <c r="FJ14">
+        <v>0</v>
+      </c>
+      <c r="FK14">
+        <v>0</v>
+      </c>
+      <c r="FP14" t="e">
+        <f>IF(G14=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:172" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H15">
         <v>53303.552879920302</v>
@@ -4486,13 +5077,89 @@
       <c r="EM15">
         <v>0</v>
       </c>
+      <c r="EN15">
+        <v>1380.0924701289</v>
+      </c>
+      <c r="EO15">
+        <v>38.8943526657349</v>
+      </c>
+      <c r="EP15">
+        <v>-1221.80921012106</v>
+      </c>
+      <c r="EQ15">
+        <v>2868.5334820499902</v>
+      </c>
+      <c r="ER15">
+        <v>1380.0924701289</v>
+      </c>
+      <c r="ES15">
+        <v>38.8943526657349</v>
+      </c>
+      <c r="ET15">
+        <v>-1488.89692894674</v>
+      </c>
+      <c r="EU15">
+        <v>2637.1278731197499</v>
+      </c>
+      <c r="EV15">
+        <v>1380.0924701289</v>
+      </c>
+      <c r="EW15">
+        <v>38.8943526657349</v>
+      </c>
+      <c r="EX15">
+        <v>-1293.79613451407</v>
+      </c>
+      <c r="EY15">
+        <v>3019.6550554273999</v>
+      </c>
+      <c r="EZ15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FA15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FB15">
+        <v>53.541698843826502</v>
+      </c>
+      <c r="FC15">
+        <v>49.431742921727597</v>
+      </c>
+      <c r="FD15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FE15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FF15">
+        <v>53.541698843826502</v>
+      </c>
+      <c r="FG15">
+        <v>49.431742921727597</v>
+      </c>
+      <c r="FH15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FI15">
+        <v>22.582865510900401</v>
+      </c>
+      <c r="FJ15">
+        <v>53.541698843826502</v>
+      </c>
+      <c r="FK15">
+        <v>49.431742921727597</v>
+      </c>
+      <c r="FP15" t="e">
+        <f>IF(G15=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:172" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H16">
         <v>7.4797743693527501</v>
@@ -4902,13 +5569,89 @@
       <c r="EM16">
         <v>0</v>
       </c>
+      <c r="EN16">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO16">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP16">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ16">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER16">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES16">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET16">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU16">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV16">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW16">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX16">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY16">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB16">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC16">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF16">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG16">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI16">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ16">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK16">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP16" t="e">
+        <f>IF(G16=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="17" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H17">
         <v>70387.595171884997</v>
@@ -5318,13 +6061,89 @@
       <c r="EM17">
         <v>0</v>
       </c>
+      <c r="EN17">
+        <v>1251.3511130991201</v>
+      </c>
+      <c r="EO17">
+        <v>44.322902608614498</v>
+      </c>
+      <c r="EP17">
+        <v>-1777.67099156313</v>
+      </c>
+      <c r="EQ17">
+        <v>3744.9208347700301</v>
+      </c>
+      <c r="ER17">
+        <v>1251.3511130991201</v>
+      </c>
+      <c r="ES17">
+        <v>44.322902608614498</v>
+      </c>
+      <c r="ET17">
+        <v>-2084.75931079161</v>
+      </c>
+      <c r="EU17">
+        <v>3477.64012849552</v>
+      </c>
+      <c r="EV17">
+        <v>1251.3511130991201</v>
+      </c>
+      <c r="EW17">
+        <v>44.322902608614498</v>
+      </c>
+      <c r="EX17">
+        <v>-1850.03592444075</v>
+      </c>
+      <c r="EY17">
+        <v>3904.64084580688</v>
+      </c>
+      <c r="EZ17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FA17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FB17">
+        <v>55.943718763642401</v>
+      </c>
+      <c r="FC17">
+        <v>51.647969878657499</v>
+      </c>
+      <c r="FD17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FE17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FF17">
+        <v>55.943718763642401</v>
+      </c>
+      <c r="FG17">
+        <v>51.647969878657499</v>
+      </c>
+      <c r="FH17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FI17">
+        <v>23.5765998774217</v>
+      </c>
+      <c r="FJ17">
+        <v>55.943718763642401</v>
+      </c>
+      <c r="FK17">
+        <v>51.647969878657499</v>
+      </c>
+      <c r="FP17" t="e">
+        <f>IF(G17=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="18" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H18">
         <v>7.4797743693527501</v>
@@ -5734,13 +6553,89 @@
       <c r="EM18">
         <v>0</v>
       </c>
+      <c r="EN18">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO18">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP18">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ18">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER18">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES18">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET18">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU18">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV18">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW18">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX18">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY18">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB18">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC18">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF18">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG18">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI18">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ18">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK18">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP18" t="e">
+        <f>IF(G18=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="19" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H19">
         <v>55958.54573777</v>
@@ -6150,13 +7045,89 @@
       <c r="EM19">
         <v>0</v>
       </c>
+      <c r="EN19">
+        <v>1360.9255249902899</v>
+      </c>
+      <c r="EO19">
+        <v>39.704700602235</v>
+      </c>
+      <c r="EP19">
+        <v>-1303.4516055320501</v>
+      </c>
+      <c r="EQ19">
+        <v>2997.73192897435</v>
+      </c>
+      <c r="ER19">
+        <v>1360.9255249902899</v>
+      </c>
+      <c r="ES19">
+        <v>39.704700602235</v>
+      </c>
+      <c r="ET19">
+        <v>-1576.5358609294401</v>
+      </c>
+      <c r="EU19">
+        <v>2760.9387828200302</v>
+      </c>
+      <c r="EV19">
+        <v>1360.9255249902899</v>
+      </c>
+      <c r="EW19">
+        <v>39.704700602235</v>
+      </c>
+      <c r="EX19">
+        <v>-1375.5027003201701</v>
+      </c>
+      <c r="EY19">
+        <v>3150.15550914402</v>
+      </c>
+      <c r="EZ19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FA19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FB19">
+        <v>53.961433586195803</v>
+      </c>
+      <c r="FC19">
+        <v>49.818650991336199</v>
+      </c>
+      <c r="FD19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FE19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FF19">
+        <v>53.961433586195803</v>
+      </c>
+      <c r="FG19">
+        <v>49.818650991336199</v>
+      </c>
+      <c r="FH19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FI19">
+        <v>22.752816012525599</v>
+      </c>
+      <c r="FJ19">
+        <v>53.961433586195803</v>
+      </c>
+      <c r="FK19">
+        <v>49.818650991336199</v>
+      </c>
+      <c r="FP19" t="e">
+        <f>IF(G19=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="20" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H20">
         <v>7.4797743693527501</v>
@@ -6566,13 +7537,89 @@
       <c r="EM20">
         <v>0</v>
       </c>
+      <c r="EN20">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO20">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP20">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ20">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER20">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES20">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET20">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU20">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV20">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW20">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX20">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY20">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB20">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC20">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF20">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG20">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI20">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ20">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK20">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP20" t="e">
+        <f>IF(G20=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="21" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H21">
         <v>59872.934833940701</v>
@@ -6982,13 +8029,89 @@
       <c r="EM21">
         <v>0</v>
       </c>
+      <c r="EN21">
+        <v>1330.09575019314</v>
+      </c>
+      <c r="EO21">
+        <v>41.0027018649794</v>
+      </c>
+      <c r="EP21">
+        <v>-1437.3590950340199</v>
+      </c>
+      <c r="EQ21">
+        <v>3208.4369461501801</v>
+      </c>
+      <c r="ER21">
+        <v>1330.09575019314</v>
+      </c>
+      <c r="ES21">
+        <v>41.0027018649794</v>
+      </c>
+      <c r="ET21">
+        <v>-1719.9936213253</v>
+      </c>
+      <c r="EU21">
+        <v>2963.0831079109598</v>
+      </c>
+      <c r="EV21">
+        <v>1330.09575019314</v>
+      </c>
+      <c r="EW21">
+        <v>41.0027018649794</v>
+      </c>
+      <c r="EX21">
+        <v>-1509.49559759367</v>
+      </c>
+      <c r="EY21">
+        <v>3362.9050871194399</v>
+      </c>
+      <c r="EZ21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FA21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FB21">
+        <v>54.495552929735403</v>
+      </c>
+      <c r="FC21">
+        <v>50.311693429822199</v>
+      </c>
+      <c r="FD21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FE21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FF21">
+        <v>54.495552929735403</v>
+      </c>
+      <c r="FG21">
+        <v>50.311693429822199</v>
+      </c>
+      <c r="FH21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FI21">
+        <v>22.976208212872599</v>
+      </c>
+      <c r="FJ21">
+        <v>54.495552929735403</v>
+      </c>
+      <c r="FK21">
+        <v>50.311693429822199</v>
+      </c>
+      <c r="FP21" t="e">
+        <f>IF(G21=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="22" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H22">
         <v>7.4797743693527501</v>
@@ -7398,13 +8521,89 @@
       <c r="EM22">
         <v>0</v>
       </c>
+      <c r="EN22">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO22">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP22">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ22">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER22">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES22">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET22">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU22">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV22">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW22">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX22">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY22">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB22">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC22">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF22">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG22">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI22">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ22">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK22">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP22" t="e">
+        <f>IF(G22=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="23" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H23">
         <v>74980.807157586198</v>
@@ -7814,13 +9013,89 @@
       <c r="EM23">
         <v>0</v>
       </c>
+      <c r="EN23">
+        <v>1216.3334855027199</v>
+      </c>
+      <c r="EO23">
+        <v>45.798358940810097</v>
+      </c>
+      <c r="EP23">
+        <v>-1929.50178665095</v>
+      </c>
+      <c r="EQ23">
+        <v>3984.0538641848502</v>
+      </c>
+      <c r="ER23">
+        <v>1216.3334855027199</v>
+      </c>
+      <c r="ES23">
+        <v>45.798358940810097</v>
+      </c>
+      <c r="ET23">
+        <v>-2247.44634962594</v>
+      </c>
+      <c r="EU23">
+        <v>3707.0427343107399</v>
+      </c>
+      <c r="EV23">
+        <v>1216.3334855027199</v>
+      </c>
+      <c r="EW23">
+        <v>45.798358940810097</v>
+      </c>
+      <c r="EX23">
+        <v>-2001.9648539392999</v>
+      </c>
+      <c r="EY23">
+        <v>4146.0997515824702</v>
+      </c>
+      <c r="EZ23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FA23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FB23">
+        <v>56.560287599770703</v>
+      </c>
+      <c r="FC23">
+        <v>52.217062215511199</v>
+      </c>
+      <c r="FD23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FE23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FF23">
+        <v>56.560287599770703</v>
+      </c>
+      <c r="FG23">
+        <v>52.217062215511199</v>
+      </c>
+      <c r="FH23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FI23">
+        <v>23.8338751389355</v>
+      </c>
+      <c r="FJ23">
+        <v>56.560287599770703</v>
+      </c>
+      <c r="FK23">
+        <v>52.217062215511199</v>
+      </c>
+      <c r="FP23" t="e">
+        <f>IF(G23=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="24" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H24">
         <v>7.4797743693527501</v>
@@ -8230,16 +9505,92 @@
       <c r="EM24">
         <v>0</v>
       </c>
+      <c r="EN24">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO24">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP24">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ24">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER24">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES24">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET24">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU24">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV24">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW24">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX24">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY24">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB24">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC24">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF24">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG24">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI24">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ24">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK24">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP24" t="e">
+        <f>IF(G24=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="25" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H25">
         <v>53296.073105550997</v>
@@ -8649,16 +10000,92 @@
       <c r="EM25">
         <v>0</v>
       </c>
+      <c r="EN25">
+        <v>1380.35281092946</v>
+      </c>
+      <c r="EO25">
+        <v>38.864287073354298</v>
+      </c>
+      <c r="EP25">
+        <v>-1221.55201050094</v>
+      </c>
+      <c r="EQ25">
+        <v>2867.7571298408802</v>
+      </c>
+      <c r="ER25">
+        <v>1380.35281092946</v>
+      </c>
+      <c r="ES25">
+        <v>38.864287073354298</v>
+      </c>
+      <c r="ET25">
+        <v>-1488.54401862074</v>
+      </c>
+      <c r="EU25">
+        <v>2636.4442824800999</v>
+      </c>
+      <c r="EV25">
+        <v>1380.35281092946</v>
+      </c>
+      <c r="EW25">
+        <v>38.864287073354298</v>
+      </c>
+      <c r="EX25">
+        <v>-1293.54232151054</v>
+      </c>
+      <c r="EY25">
+        <v>3018.8476733706798</v>
+      </c>
+      <c r="EZ25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FA25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FB25">
+        <v>53.479830478210999</v>
+      </c>
+      <c r="FC25">
+        <v>49.374619375620398</v>
+      </c>
+      <c r="FD25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FE25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FF25">
+        <v>53.479830478210999</v>
+      </c>
+      <c r="FG25">
+        <v>49.374619375620398</v>
+      </c>
+      <c r="FH25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FI25">
+        <v>22.556749509762</v>
+      </c>
+      <c r="FJ25">
+        <v>53.479830478210999</v>
+      </c>
+      <c r="FK25">
+        <v>49.374619375620398</v>
+      </c>
+      <c r="FP25" t="e">
+        <f>IF(G25=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="26" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H26">
         <v>70380.115397515605</v>
@@ -9068,16 +10495,92 @@
       <c r="EM26">
         <v>0</v>
       </c>
+      <c r="EN26">
+        <v>1251.6114538996801</v>
+      </c>
+      <c r="EO26">
+        <v>44.292837016233896</v>
+      </c>
+      <c r="EP26">
+        <v>-1777.41379194301</v>
+      </c>
+      <c r="EQ26">
+        <v>3744.1444825609101</v>
+      </c>
+      <c r="ER26">
+        <v>1251.6114538996801</v>
+      </c>
+      <c r="ES26">
+        <v>44.292837016233896</v>
+      </c>
+      <c r="ET26">
+        <v>-2084.4064004656102</v>
+      </c>
+      <c r="EU26">
+        <v>3476.95653785587</v>
+      </c>
+      <c r="EV26">
+        <v>1251.6114538996801</v>
+      </c>
+      <c r="EW26">
+        <v>44.292837016233896</v>
+      </c>
+      <c r="EX26">
+        <v>-1849.78211143722</v>
+      </c>
+      <c r="EY26">
+        <v>3903.8334637501598</v>
+      </c>
+      <c r="EZ26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FA26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FB26">
+        <v>55.881850398026899</v>
+      </c>
+      <c r="FC26">
+        <v>51.590846332550399</v>
+      </c>
+      <c r="FD26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FE26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FF26">
+        <v>55.881850398026899</v>
+      </c>
+      <c r="FG26">
+        <v>51.590846332550399</v>
+      </c>
+      <c r="FH26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FI26">
+        <v>23.550483876283302</v>
+      </c>
+      <c r="FJ26">
+        <v>55.881850398026899</v>
+      </c>
+      <c r="FK26">
+        <v>51.590846332550399</v>
+      </c>
+      <c r="FP26" t="e">
+        <f>IF(G26=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="27" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H27">
         <v>55951.065963400702</v>
@@ -9487,16 +10990,92 @@
       <c r="EM27">
         <v>0</v>
       </c>
+      <c r="EN27">
+        <v>1361.1858657908499</v>
+      </c>
+      <c r="EO27">
+        <v>39.674635009854399</v>
+      </c>
+      <c r="EP27">
+        <v>-1303.1944059119201</v>
+      </c>
+      <c r="EQ27">
+        <v>2996.95557676523</v>
+      </c>
+      <c r="ER27">
+        <v>1361.1858657908499</v>
+      </c>
+      <c r="ES27">
+        <v>39.674635009854399</v>
+      </c>
+      <c r="ET27">
+        <v>-1576.1829506034401</v>
+      </c>
+      <c r="EU27">
+        <v>2760.2551921803802</v>
+      </c>
+      <c r="EV27">
+        <v>1361.1858657908499</v>
+      </c>
+      <c r="EW27">
+        <v>39.674635009854399</v>
+      </c>
+      <c r="EX27">
+        <v>-1375.2488873166401</v>
+      </c>
+      <c r="EY27">
+        <v>3149.3481270872899</v>
+      </c>
+      <c r="EZ27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FA27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FB27">
+        <v>53.8995652205803</v>
+      </c>
+      <c r="FC27">
+        <v>49.761527445229</v>
+      </c>
+      <c r="FD27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FE27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FF27">
+        <v>53.8995652205803</v>
+      </c>
+      <c r="FG27">
+        <v>49.761527445229</v>
+      </c>
+      <c r="FH27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FI27">
+        <v>22.726700011387098</v>
+      </c>
+      <c r="FJ27">
+        <v>53.8995652205803</v>
+      </c>
+      <c r="FK27">
+        <v>49.761527445229</v>
+      </c>
+      <c r="FP27" t="e">
+        <f>IF(G27=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="28" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H28">
         <v>59865.455059571301</v>
@@ -9906,16 +11485,92 @@
       <c r="EM28">
         <v>0</v>
       </c>
+      <c r="EN28">
+        <v>1330.3560909937</v>
+      </c>
+      <c r="EO28">
+        <v>40.972636272598798</v>
+      </c>
+      <c r="EP28">
+        <v>-1437.1018954138999</v>
+      </c>
+      <c r="EQ28">
+        <v>3207.6605939410701</v>
+      </c>
+      <c r="ER28">
+        <v>1330.3560909937</v>
+      </c>
+      <c r="ES28">
+        <v>40.972636272598798</v>
+      </c>
+      <c r="ET28">
+        <v>-1719.6407109992999</v>
+      </c>
+      <c r="EU28">
+        <v>2962.3995172713098</v>
+      </c>
+      <c r="EV28">
+        <v>1330.3560909937</v>
+      </c>
+      <c r="EW28">
+        <v>40.972636272598798</v>
+      </c>
+      <c r="EX28">
+        <v>-1509.24178459014</v>
+      </c>
+      <c r="EY28">
+        <v>3362.0977050627098</v>
+      </c>
+      <c r="EZ28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FA28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FB28">
+        <v>54.433684564119901</v>
+      </c>
+      <c r="FC28">
+        <v>50.254569883715</v>
+      </c>
+      <c r="FD28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FE28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FF28">
+        <v>54.433684564119901</v>
+      </c>
+      <c r="FG28">
+        <v>50.254569883715</v>
+      </c>
+      <c r="FH28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FI28">
+        <v>22.950092211734098</v>
+      </c>
+      <c r="FJ28">
+        <v>54.433684564119901</v>
+      </c>
+      <c r="FK28">
+        <v>50.254569883715</v>
+      </c>
+      <c r="FP28" t="e">
+        <f>IF(G28=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="29" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H29">
         <v>74973.327383216907</v>
@@ -10325,19 +11980,95 @@
       <c r="EM29">
         <v>0</v>
       </c>
+      <c r="EN29">
+        <v>1216.5938263032799</v>
+      </c>
+      <c r="EO29">
+        <v>45.768293348429502</v>
+      </c>
+      <c r="EP29">
+        <v>-1929.24458703083</v>
+      </c>
+      <c r="EQ29">
+        <v>3983.2775119757298</v>
+      </c>
+      <c r="ER29">
+        <v>1216.5938263032799</v>
+      </c>
+      <c r="ES29">
+        <v>45.768293348429502</v>
+      </c>
+      <c r="ET29">
+        <v>-2247.0934392999402</v>
+      </c>
+      <c r="EU29">
+        <v>3706.3591436710999</v>
+      </c>
+      <c r="EV29">
+        <v>1216.5938263032799</v>
+      </c>
+      <c r="EW29">
+        <v>45.768293348429502</v>
+      </c>
+      <c r="EX29">
+        <v>-2001.7110409357699</v>
+      </c>
+      <c r="EY29">
+        <v>4145.2923695257496</v>
+      </c>
+      <c r="EZ29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FA29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FB29">
+        <v>56.4984192341553</v>
+      </c>
+      <c r="FC29">
+        <v>52.159938669403999</v>
+      </c>
+      <c r="FD29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FE29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FF29">
+        <v>56.4984192341553</v>
+      </c>
+      <c r="FG29">
+        <v>52.159938669403999</v>
+      </c>
+      <c r="FH29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FI29">
+        <v>23.807759137796999</v>
+      </c>
+      <c r="FJ29">
+        <v>56.4984192341553</v>
+      </c>
+      <c r="FK29">
+        <v>52.159938669403999</v>
+      </c>
+      <c r="FP29" t="e">
+        <f>IF(G29=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="30" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -10747,8 +12478,84 @@
       <c r="EM30">
         <v>0</v>
       </c>
+      <c r="EN30">
+        <v>0</v>
+      </c>
+      <c r="EO30">
+        <v>0</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
+      <c r="EQ30">
+        <v>0</v>
+      </c>
+      <c r="ER30">
+        <v>0</v>
+      </c>
+      <c r="ES30">
+        <v>0</v>
+      </c>
+      <c r="ET30">
+        <v>0</v>
+      </c>
+      <c r="EU30">
+        <v>0</v>
+      </c>
+      <c r="EV30">
+        <v>0</v>
+      </c>
+      <c r="EW30">
+        <v>0</v>
+      </c>
+      <c r="EX30">
+        <v>0</v>
+      </c>
+      <c r="EY30">
+        <v>0</v>
+      </c>
+      <c r="EZ30">
+        <v>0</v>
+      </c>
+      <c r="FA30">
+        <v>0</v>
+      </c>
+      <c r="FB30">
+        <v>0</v>
+      </c>
+      <c r="FC30">
+        <v>0</v>
+      </c>
+      <c r="FD30">
+        <v>0</v>
+      </c>
+      <c r="FE30">
+        <v>0</v>
+      </c>
+      <c r="FF30">
+        <v>0</v>
+      </c>
+      <c r="FG30">
+        <v>0</v>
+      </c>
+      <c r="FH30">
+        <v>0</v>
+      </c>
+      <c r="FI30">
+        <v>0</v>
+      </c>
+      <c r="FJ30">
+        <v>0</v>
+      </c>
+      <c r="FK30">
+        <v>0</v>
+      </c>
+      <c r="FP30" t="e">
+        <f>IF(G30=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="31" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -11166,13 +12973,89 @@
       <c r="EM31">
         <v>0</v>
       </c>
+      <c r="EN31">
+        <v>0</v>
+      </c>
+      <c r="EO31">
+        <v>0</v>
+      </c>
+      <c r="EP31">
+        <v>0</v>
+      </c>
+      <c r="EQ31">
+        <v>0</v>
+      </c>
+      <c r="ER31">
+        <v>0</v>
+      </c>
+      <c r="ES31">
+        <v>0</v>
+      </c>
+      <c r="ET31">
+        <v>0</v>
+      </c>
+      <c r="EU31">
+        <v>0</v>
+      </c>
+      <c r="EV31">
+        <v>0</v>
+      </c>
+      <c r="EW31">
+        <v>0</v>
+      </c>
+      <c r="EX31">
+        <v>0</v>
+      </c>
+      <c r="EY31">
+        <v>0</v>
+      </c>
+      <c r="EZ31">
+        <v>0</v>
+      </c>
+      <c r="FA31">
+        <v>0</v>
+      </c>
+      <c r="FB31">
+        <v>0</v>
+      </c>
+      <c r="FC31">
+        <v>0</v>
+      </c>
+      <c r="FD31">
+        <v>0</v>
+      </c>
+      <c r="FE31">
+        <v>0</v>
+      </c>
+      <c r="FF31">
+        <v>0</v>
+      </c>
+      <c r="FG31">
+        <v>0</v>
+      </c>
+      <c r="FH31">
+        <v>0</v>
+      </c>
+      <c r="FI31">
+        <v>0</v>
+      </c>
+      <c r="FJ31">
+        <v>0</v>
+      </c>
+      <c r="FK31">
+        <v>0</v>
+      </c>
+      <c r="FP31" t="e">
+        <f>IF(G31=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="32" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:172" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H32">
         <v>64119.625489095597</v>
@@ -11582,13 +13465,89 @@
       <c r="EM32">
         <v>0</v>
       </c>
+      <c r="EN32">
+        <v>1380.2220876280701</v>
+      </c>
+      <c r="EO32">
+        <v>38.145376729998802</v>
+      </c>
+      <c r="EP32">
+        <v>-1218.6483914468199</v>
+      </c>
+      <c r="EQ32">
+        <v>2871.5845608756699</v>
+      </c>
+      <c r="ER32">
+        <v>1380.2220876280701</v>
+      </c>
+      <c r="ES32">
+        <v>38.145376729998802</v>
+      </c>
+      <c r="ET32">
+        <v>-1484.2603381628101</v>
+      </c>
+      <c r="EU32">
+        <v>2638.5598724484098</v>
+      </c>
+      <c r="EV32">
+        <v>1380.2220876280701</v>
+      </c>
+      <c r="EW32">
+        <v>38.145376729998802</v>
+      </c>
+      <c r="EX32">
+        <v>-1288.6013225210199</v>
+      </c>
+      <c r="EY32">
+        <v>3020.84803153245</v>
+      </c>
+      <c r="EZ32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FA32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FB32">
+        <v>53.954061762897901</v>
+      </c>
+      <c r="FC32">
+        <v>49.818981234653798</v>
+      </c>
+      <c r="FD32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FE32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FF32">
+        <v>53.954061762897901</v>
+      </c>
+      <c r="FG32">
+        <v>49.818981234653798</v>
+      </c>
+      <c r="FH32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FI32">
+        <v>22.7211540678279</v>
+      </c>
+      <c r="FJ32">
+        <v>53.954061762897901</v>
+      </c>
+      <c r="FK32">
+        <v>49.818981234653798</v>
+      </c>
+      <c r="FP32" t="e">
+        <f>IF(G32=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="33" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H33">
         <v>7.4797743693527501</v>
@@ -11998,13 +13957,89 @@
       <c r="EM33">
         <v>0</v>
       </c>
+      <c r="EN33">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO33">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP33">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ33">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER33">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES33">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET33">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU33">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV33">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW33">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX33">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY33">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB33">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC33">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF33">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG33">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI33">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ33">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK33">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP33" t="e">
+        <f>IF(G33=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="34" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H34">
         <v>81053.421084492002</v>
@@ -12414,13 +14449,89 @@
       <c r="EM34">
         <v>0</v>
       </c>
+      <c r="EN34">
+        <v>1251.48563632473</v>
+      </c>
+      <c r="EO34">
+        <v>43.572894773636399</v>
+      </c>
+      <c r="EP34">
+        <v>-1774.5837047970799</v>
+      </c>
+      <c r="EQ34">
+        <v>3747.9360199903399</v>
+      </c>
+      <c r="ER34">
+        <v>1251.48563632473</v>
+      </c>
+      <c r="ES34">
+        <v>43.572894773636399</v>
+      </c>
+      <c r="ET34">
+        <v>-2080.1923445038601</v>
+      </c>
+      <c r="EU34">
+        <v>3479.03738514524</v>
+      </c>
+      <c r="EV34">
+        <v>1251.48563632473</v>
+      </c>
+      <c r="EW34">
+        <v>43.572894773636399</v>
+      </c>
+      <c r="EX34">
+        <v>-1844.91471837723</v>
+      </c>
+      <c r="EY34">
+        <v>3905.7973595113899</v>
+      </c>
+      <c r="EZ34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FA34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FB34">
+        <v>56.355514707998502</v>
+      </c>
+      <c r="FC34">
+        <v>52.034684705344198</v>
+      </c>
+      <c r="FD34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FE34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FF34">
+        <v>56.355514707998502</v>
+      </c>
+      <c r="FG34">
+        <v>52.034684705344198</v>
+      </c>
+      <c r="FH34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FI34">
+        <v>23.714649069062599</v>
+      </c>
+      <c r="FJ34">
+        <v>56.355514707998502</v>
+      </c>
+      <c r="FK34">
+        <v>52.034684705344198</v>
+      </c>
+      <c r="FP34" t="e">
+        <f>IF(G34=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="35" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35">
         <v>7.4797743693527501</v>
@@ -12830,13 +14941,89 @@
       <c r="EM35">
         <v>0</v>
       </c>
+      <c r="EN35">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO35">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP35">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ35">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER35">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES35">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET35">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU35">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV35">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW35">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX35">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY35">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB35">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC35">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF35">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG35">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI35">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ35">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK35">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP35" t="e">
+        <f>IF(G35=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="36" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H36">
         <v>66624.371650376997</v>
@@ -13246,13 +15433,89 @@
       <c r="EM36">
         <v>0</v>
       </c>
+      <c r="EN36">
+        <v>1361.0600482159</v>
+      </c>
+      <c r="EO36">
+        <v>38.954692767256802</v>
+      </c>
+      <c r="EP36">
+        <v>-1300.36431876599</v>
+      </c>
+      <c r="EQ36">
+        <v>3000.7471141946498</v>
+      </c>
+      <c r="ER36">
+        <v>1361.0600482159</v>
+      </c>
+      <c r="ES36">
+        <v>38.954692767256802</v>
+      </c>
+      <c r="ET36">
+        <v>-1571.9688946417</v>
+      </c>
+      <c r="EU36">
+        <v>2762.3360394697502</v>
+      </c>
+      <c r="EV36">
+        <v>1361.0600482159</v>
+      </c>
+      <c r="EW36">
+        <v>38.954692767256802</v>
+      </c>
+      <c r="EX36">
+        <v>-1370.3814942566501</v>
+      </c>
+      <c r="EY36">
+        <v>3151.31202284852</v>
+      </c>
+      <c r="EZ36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FA36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FB36">
+        <v>54.373229530551797</v>
+      </c>
+      <c r="FC36">
+        <v>50.205365818022798</v>
+      </c>
+      <c r="FD36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FE36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FF36">
+        <v>54.373229530551797</v>
+      </c>
+      <c r="FG36">
+        <v>50.205365818022798</v>
+      </c>
+      <c r="FH36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FI36">
+        <v>22.890865204166399</v>
+      </c>
+      <c r="FJ36">
+        <v>54.373229530551797</v>
+      </c>
+      <c r="FK36">
+        <v>50.205365818022798</v>
+      </c>
+      <c r="FP36" t="e">
+        <f>IF(G36=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="37" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H37">
         <v>7.4797743693527501</v>
@@ -13662,13 +15925,89 @@
       <c r="EM37">
         <v>0</v>
       </c>
+      <c r="EN37">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO37">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP37">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ37">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER37">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES37">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET37">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU37">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV37">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW37">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX37">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY37">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB37">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC37">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF37">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG37">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI37">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ37">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK37">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP37" t="e">
+        <f>IF(G37=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="38" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H38">
         <v>70689.007443116003</v>
@@ -14078,13 +16417,89 @@
       <c r="EM38">
         <v>0</v>
       </c>
+      <c r="EN38">
+        <v>1330.2253676923101</v>
+      </c>
+      <c r="EO38">
+        <v>40.253725929243302</v>
+      </c>
+      <c r="EP38">
+        <v>-1434.19827635978</v>
+      </c>
+      <c r="EQ38">
+        <v>3211.4880249758598</v>
+      </c>
+      <c r="ER38">
+        <v>1330.2253676923101</v>
+      </c>
+      <c r="ES38">
+        <v>40.253725929243302</v>
+      </c>
+      <c r="ET38">
+        <v>-1715.35703054138</v>
+      </c>
+      <c r="EU38">
+        <v>2964.5151072396102</v>
+      </c>
+      <c r="EV38">
+        <v>1330.2253676923101</v>
+      </c>
+      <c r="EW38">
+        <v>40.253725929243302</v>
+      </c>
+      <c r="EX38">
+        <v>-1504.30078560062</v>
+      </c>
+      <c r="EY38">
+        <v>3364.09806322449</v>
+      </c>
+      <c r="EZ38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FA38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FB38">
+        <v>54.907915848806802</v>
+      </c>
+      <c r="FC38">
+        <v>50.6989317427484</v>
+      </c>
+      <c r="FD38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FE38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FF38">
+        <v>54.907915848806802</v>
+      </c>
+      <c r="FG38">
+        <v>50.6989317427484</v>
+      </c>
+      <c r="FH38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FI38">
+        <v>23.114496769800098</v>
+      </c>
+      <c r="FJ38">
+        <v>54.907915848806802</v>
+      </c>
+      <c r="FK38">
+        <v>50.6989317427484</v>
+      </c>
+      <c r="FP38" t="e">
+        <f>IF(G38=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="39" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H39">
         <v>7.4797743693527501</v>
@@ -14494,13 +16909,89 @@
       <c r="EM39">
         <v>0</v>
       </c>
+      <c r="EN39">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO39">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP39">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ39">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER39">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES39">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET39">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU39">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV39">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW39">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX39">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY39">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB39">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC39">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF39">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG39">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI39">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ39">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK39">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP39" t="e">
+        <f>IF(G39=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="40" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H40">
         <v>85646.633070193304</v>
@@ -14910,13 +17401,89 @@
       <c r="EM40">
         <v>0</v>
       </c>
+      <c r="EN40">
+        <v>1216.46800872833</v>
+      </c>
+      <c r="EO40">
+        <v>45.048351105831998</v>
+      </c>
+      <c r="EP40">
+        <v>-1926.4144998848999</v>
+      </c>
+      <c r="EQ40">
+        <v>3987.0690494051601</v>
+      </c>
+      <c r="ER40">
+        <v>1216.46800872833</v>
+      </c>
+      <c r="ES40">
+        <v>45.048351105831998</v>
+      </c>
+      <c r="ET40">
+        <v>-2242.8793833382001</v>
+      </c>
+      <c r="EU40">
+        <v>3708.4399909604599</v>
+      </c>
+      <c r="EV40">
+        <v>1216.46800872833</v>
+      </c>
+      <c r="EW40">
+        <v>45.048351105831998</v>
+      </c>
+      <c r="EX40">
+        <v>-1996.8436478757801</v>
+      </c>
+      <c r="EY40">
+        <v>4147.2562652869701</v>
+      </c>
+      <c r="EZ40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FA40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FB40">
+        <v>56.972083544126797</v>
+      </c>
+      <c r="FC40">
+        <v>52.603777042197898</v>
+      </c>
+      <c r="FD40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FE40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FF40">
+        <v>56.972083544126797</v>
+      </c>
+      <c r="FG40">
+        <v>52.603777042197898</v>
+      </c>
+      <c r="FH40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FI40">
+        <v>23.9719243305764</v>
+      </c>
+      <c r="FJ40">
+        <v>56.972083544126797</v>
+      </c>
+      <c r="FK40">
+        <v>52.603777042197898</v>
+      </c>
+      <c r="FP40" t="e">
+        <f>IF(G40=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="41" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:172" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H41">
         <v>7.4797743693527501</v>
@@ -15326,16 +17893,92 @@
       <c r="EM41">
         <v>0</v>
       </c>
+      <c r="EN41">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO41">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP41">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ41">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER41">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES41">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET41">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU41">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV41">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW41">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX41">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY41">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB41">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC41">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF41">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG41">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI41">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ41">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK41">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP41" t="e">
+        <f>IF(G41=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="42" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H42">
         <v>64112.145714726197</v>
@@ -15745,16 +18388,92 @@
       <c r="EM42">
         <v>0</v>
       </c>
+      <c r="EN42">
+        <v>1380.4824284286301</v>
+      </c>
+      <c r="EO42">
+        <v>38.1153111376182</v>
+      </c>
+      <c r="EP42">
+        <v>-1218.3911918266899</v>
+      </c>
+      <c r="EQ42">
+        <v>2870.8082086665499</v>
+      </c>
+      <c r="ER42">
+        <v>1380.4824284286301</v>
+      </c>
+      <c r="ES42">
+        <v>38.1153111376182</v>
+      </c>
+      <c r="ET42">
+        <v>-1483.90742783681</v>
+      </c>
+      <c r="EU42">
+        <v>2637.8762818087598</v>
+      </c>
+      <c r="EV42">
+        <v>1380.4824284286301</v>
+      </c>
+      <c r="EW42">
+        <v>38.1153111376182</v>
+      </c>
+      <c r="EX42">
+        <v>-1288.3475095174899</v>
+      </c>
+      <c r="EY42">
+        <v>3020.0406494757199</v>
+      </c>
+      <c r="EZ42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FA42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FB42">
+        <v>53.892193397282398</v>
+      </c>
+      <c r="FC42">
+        <v>49.761857688546698</v>
+      </c>
+      <c r="FD42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FE42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FF42">
+        <v>53.892193397282398</v>
+      </c>
+      <c r="FG42">
+        <v>49.761857688546698</v>
+      </c>
+      <c r="FH42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FI42">
+        <v>22.695038066689499</v>
+      </c>
+      <c r="FJ42">
+        <v>53.892193397282398</v>
+      </c>
+      <c r="FK42">
+        <v>49.761857688546698</v>
+      </c>
+      <c r="FP42" t="e">
+        <f>IF(G42=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="43" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H43">
         <v>81045.941310122595</v>
@@ -16164,16 +18883,92 @@
       <c r="EM43">
         <v>0</v>
       </c>
+      <c r="EN43">
+        <v>1251.74597712529</v>
+      </c>
+      <c r="EO43">
+        <v>43.542829181255797</v>
+      </c>
+      <c r="EP43">
+        <v>-1774.3265051769499</v>
+      </c>
+      <c r="EQ43">
+        <v>3747.1596677812199</v>
+      </c>
+      <c r="ER43">
+        <v>1251.74597712529</v>
+      </c>
+      <c r="ES43">
+        <v>43.542829181255797</v>
+      </c>
+      <c r="ET43">
+        <v>-2079.8394341778599</v>
+      </c>
+      <c r="EU43">
+        <v>3478.35379450559</v>
+      </c>
+      <c r="EV43">
+        <v>1251.74597712529</v>
+      </c>
+      <c r="EW43">
+        <v>43.542829181255797</v>
+      </c>
+      <c r="EX43">
+        <v>-1844.6609053737</v>
+      </c>
+      <c r="EY43">
+        <v>3904.9899774546602</v>
+      </c>
+      <c r="EZ43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FA43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FB43">
+        <v>56.293646342382999</v>
+      </c>
+      <c r="FC43">
+        <v>51.977561159236998</v>
+      </c>
+      <c r="FD43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FE43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FF43">
+        <v>56.293646342382999</v>
+      </c>
+      <c r="FG43">
+        <v>51.977561159236998</v>
+      </c>
+      <c r="FH43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FI43">
+        <v>23.688533067924102</v>
+      </c>
+      <c r="FJ43">
+        <v>56.293646342382999</v>
+      </c>
+      <c r="FK43">
+        <v>51.977561159236998</v>
+      </c>
+      <c r="FP43" t="e">
+        <f>IF(G43=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="44" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H44">
         <v>66616.891876007707</v>
@@ -16583,16 +19378,92 @@
       <c r="EM44">
         <v>0</v>
       </c>
+      <c r="EN44">
+        <v>1361.32038901646</v>
+      </c>
+      <c r="EO44">
+        <v>38.9246271748762</v>
+      </c>
+      <c r="EP44">
+        <v>-1300.10711914587</v>
+      </c>
+      <c r="EQ44">
+        <v>2999.9707619855399</v>
+      </c>
+      <c r="ER44">
+        <v>1361.32038901646</v>
+      </c>
+      <c r="ES44">
+        <v>38.9246271748762</v>
+      </c>
+      <c r="ET44">
+        <v>-1571.61598431569</v>
+      </c>
+      <c r="EU44">
+        <v>2761.6524488301002</v>
+      </c>
+      <c r="EV44">
+        <v>1361.32038901646</v>
+      </c>
+      <c r="EW44">
+        <v>38.9246271748762</v>
+      </c>
+      <c r="EX44">
+        <v>-1370.12768125312</v>
+      </c>
+      <c r="EY44">
+        <v>3150.5046407917898</v>
+      </c>
+      <c r="EZ44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FA44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FB44">
+        <v>54.3113611649364</v>
+      </c>
+      <c r="FC44">
+        <v>50.148242271915699</v>
+      </c>
+      <c r="FD44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FE44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FF44">
+        <v>54.3113611649364</v>
+      </c>
+      <c r="FG44">
+        <v>50.148242271915699</v>
+      </c>
+      <c r="FH44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FI44">
+        <v>22.864749203028001</v>
+      </c>
+      <c r="FJ44">
+        <v>54.3113611649364</v>
+      </c>
+      <c r="FK44">
+        <v>50.148242271915699</v>
+      </c>
+      <c r="FP44" t="e">
+        <f>IF(G44=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="45" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H45">
         <v>70681.527668746596</v>
@@ -17002,16 +19873,92 @@
       <c r="EM45">
         <v>0</v>
       </c>
+      <c r="EN45">
+        <v>1330.4857084928699</v>
+      </c>
+      <c r="EO45">
+        <v>40.2236603368627</v>
+      </c>
+      <c r="EP45">
+        <v>-1433.94107673966</v>
+      </c>
+      <c r="EQ45">
+        <v>3210.7116727667399</v>
+      </c>
+      <c r="ER45">
+        <v>1330.4857084928699</v>
+      </c>
+      <c r="ES45">
+        <v>40.2236603368627</v>
+      </c>
+      <c r="ET45">
+        <v>-1715.00412021537</v>
+      </c>
+      <c r="EU45">
+        <v>2963.8315165999702</v>
+      </c>
+      <c r="EV45">
+        <v>1330.4857084928699</v>
+      </c>
+      <c r="EW45">
+        <v>40.2236603368627</v>
+      </c>
+      <c r="EX45">
+        <v>-1504.04697259709</v>
+      </c>
+      <c r="EY45">
+        <v>3363.2906811677599</v>
+      </c>
+      <c r="EZ45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FA45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FB45">
+        <v>54.846047483191299</v>
+      </c>
+      <c r="FC45">
+        <v>50.6418081966413</v>
+      </c>
+      <c r="FD45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FE45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FF45">
+        <v>54.846047483191299</v>
+      </c>
+      <c r="FG45">
+        <v>50.6418081966413</v>
+      </c>
+      <c r="FH45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FI45">
+        <v>23.088380768661601</v>
+      </c>
+      <c r="FJ45">
+        <v>54.846047483191299</v>
+      </c>
+      <c r="FK45">
+        <v>50.6418081966413</v>
+      </c>
+      <c r="FP45" t="e">
+        <f>IF(G45=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="46" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H46">
         <v>85639.153295823897</v>
@@ -17421,8 +20368,84 @@
       <c r="EM46">
         <v>0</v>
       </c>
+      <c r="EN46">
+        <v>1216.72834952889</v>
+      </c>
+      <c r="EO46">
+        <v>45.018285513451403</v>
+      </c>
+      <c r="EP46">
+        <v>-1926.1573002647699</v>
+      </c>
+      <c r="EQ46">
+        <v>3986.2926971960401</v>
+      </c>
+      <c r="ER46">
+        <v>1216.72834952889</v>
+      </c>
+      <c r="ES46">
+        <v>45.018285513451403</v>
+      </c>
+      <c r="ET46">
+        <v>-2242.5264730121899</v>
+      </c>
+      <c r="EU46">
+        <v>3707.7564003208099</v>
+      </c>
+      <c r="EV46">
+        <v>1216.72834952889</v>
+      </c>
+      <c r="EW46">
+        <v>45.018285513451403</v>
+      </c>
+      <c r="EX46">
+        <v>-1996.5898348722501</v>
+      </c>
+      <c r="EY46">
+        <v>4146.4488832302504</v>
+      </c>
+      <c r="EZ46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FA46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FB46">
+        <v>56.910215178511301</v>
+      </c>
+      <c r="FC46">
+        <v>52.546653496090698</v>
+      </c>
+      <c r="FD46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FE46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FF46">
+        <v>56.910215178511301</v>
+      </c>
+      <c r="FG46">
+        <v>52.546653496090698</v>
+      </c>
+      <c r="FH46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FI46">
+        <v>23.945808329437899</v>
+      </c>
+      <c r="FJ46">
+        <v>56.910215178511301</v>
+      </c>
+      <c r="FK46">
+        <v>52.546653496090698</v>
+      </c>
+      <c r="FP46" t="e">
+        <f>IF(G46=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="47" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:172" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -17846,8 +20869,84 @@
       <c r="EM47">
         <v>0</v>
       </c>
+      <c r="EN47">
+        <v>0</v>
+      </c>
+      <c r="EO47">
+        <v>0</v>
+      </c>
+      <c r="EP47">
+        <v>0</v>
+      </c>
+      <c r="EQ47">
+        <v>0</v>
+      </c>
+      <c r="ER47">
+        <v>0</v>
+      </c>
+      <c r="ES47">
+        <v>0</v>
+      </c>
+      <c r="ET47">
+        <v>0</v>
+      </c>
+      <c r="EU47">
+        <v>0</v>
+      </c>
+      <c r="EV47">
+        <v>0</v>
+      </c>
+      <c r="EW47">
+        <v>0</v>
+      </c>
+      <c r="EX47">
+        <v>0</v>
+      </c>
+      <c r="EY47">
+        <v>0</v>
+      </c>
+      <c r="EZ47">
+        <v>0</v>
+      </c>
+      <c r="FA47">
+        <v>0</v>
+      </c>
+      <c r="FB47">
+        <v>0</v>
+      </c>
+      <c r="FC47">
+        <v>0</v>
+      </c>
+      <c r="FD47">
+        <v>0</v>
+      </c>
+      <c r="FE47">
+        <v>0</v>
+      </c>
+      <c r="FF47">
+        <v>0</v>
+      </c>
+      <c r="FG47">
+        <v>0</v>
+      </c>
+      <c r="FH47">
+        <v>0</v>
+      </c>
+      <c r="FI47">
+        <v>0</v>
+      </c>
+      <c r="FJ47">
+        <v>0</v>
+      </c>
+      <c r="FK47">
+        <v>0</v>
+      </c>
+      <c r="FP47" t="e">
+        <f>IF(G47=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="48" spans="3:143" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>119</v>
       </c>
@@ -18268,8 +21367,84 @@
       <c r="EM48">
         <v>0</v>
       </c>
+      <c r="EN48">
+        <v>-16459.381683333599</v>
+      </c>
+      <c r="EO48">
+        <v>736.82502099441604</v>
+      </c>
+      <c r="EP48">
+        <v>-59422.496861643798</v>
+      </c>
+      <c r="EQ48">
+        <v>97753.896313332705</v>
+      </c>
+      <c r="ER48">
+        <v>-16459.381683333599</v>
+      </c>
+      <c r="ES48">
+        <v>736.82502099441604</v>
+      </c>
+      <c r="ET48">
+        <v>-64848.248293010802</v>
+      </c>
+      <c r="EU48">
+        <v>92592.046026480704</v>
+      </c>
+      <c r="EV48">
+        <v>-16459.381683333599</v>
+      </c>
+      <c r="EW48">
+        <v>736.82502099441604</v>
+      </c>
+      <c r="EX48">
+        <v>-59557.297187446398</v>
+      </c>
+      <c r="EY48">
+        <v>99186.058558581499</v>
+      </c>
+      <c r="EZ48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FA48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FB48">
+        <v>853.52701847169305</v>
+      </c>
+      <c r="FC48">
+        <v>788.23094085821901</v>
+      </c>
+      <c r="FD48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FE48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FF48">
+        <v>853.52701847169305</v>
+      </c>
+      <c r="FG48">
+        <v>788.23094085821901</v>
+      </c>
+      <c r="FH48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FI48">
+        <v>359.396692391388</v>
+      </c>
+      <c r="FJ48">
+        <v>853.52701847169305</v>
+      </c>
+      <c r="FK48">
+        <v>788.23094085821901</v>
+      </c>
+      <c r="FP48" t="e">
+        <f>IF(G48=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="49" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>120</v>
       </c>
@@ -18691,10 +21866,83 @@
         <v>0</v>
       </c>
       <c r="EN49">
-        <v>-4335.0288817500004</v>
+        <v>-15542.6276441999</v>
+      </c>
+      <c r="EO49">
+        <v>684.76744654556796</v>
+      </c>
+      <c r="EP49">
+        <v>-54030.727684765203</v>
+      </c>
+      <c r="EQ49">
+        <v>89903.554299819603</v>
+      </c>
+      <c r="ER49">
+        <v>-15542.6276441999</v>
+      </c>
+      <c r="ES49">
+        <v>684.76744654556796</v>
+      </c>
+      <c r="ET49">
+        <v>-59177.847784236103</v>
+      </c>
+      <c r="EU49">
+        <v>84999.236951190498</v>
+      </c>
+      <c r="EV49">
+        <v>-15542.6276441999</v>
+      </c>
+      <c r="EW49">
+        <v>684.76744654556796</v>
+      </c>
+      <c r="EX49">
+        <v>-54174.639040613401</v>
+      </c>
+      <c r="EY49">
+        <v>91280.018739737599</v>
+      </c>
+      <c r="EZ49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FA49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FB49">
+        <v>795.74942396409404</v>
+      </c>
+      <c r="FC49">
+        <v>734.87310821508504</v>
+      </c>
+      <c r="FD49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FE49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FF49">
+        <v>795.74942396409404</v>
+      </c>
+      <c r="FG49">
+        <v>734.87310821508504</v>
+      </c>
+      <c r="FH49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FI49">
+        <v>335.069843776543</v>
+      </c>
+      <c r="FJ49">
+        <v>795.74942396409404</v>
+      </c>
+      <c r="FK49">
+        <v>734.87310821508504</v>
+      </c>
+      <c r="FP49" t="e">
+        <f>IF(G49=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>121</v>
       </c>
@@ -19115,8 +22363,84 @@
       <c r="EM50">
         <v>0</v>
       </c>
+      <c r="EN50">
+        <v>-14626.528932802399</v>
+      </c>
+      <c r="EO50">
+        <v>688.28963504623505</v>
+      </c>
+      <c r="EP50">
+        <v>-59553.640084995299</v>
+      </c>
+      <c r="EQ50">
+        <v>95062.879602714806</v>
+      </c>
+      <c r="ER50">
+        <v>-14626.528932802399</v>
+      </c>
+      <c r="ES50">
+        <v>688.28963504623505</v>
+      </c>
+      <c r="ET50">
+        <v>-64390.654689847601</v>
+      </c>
+      <c r="EU50">
+        <v>90468.0622865888</v>
+      </c>
+      <c r="EV50">
+        <v>-14626.528932802399</v>
+      </c>
+      <c r="EW50">
+        <v>688.28963504623505</v>
+      </c>
+      <c r="EX50">
+        <v>-59628.560791887903</v>
+      </c>
+      <c r="EY50">
+        <v>96297.117247942297</v>
+      </c>
+      <c r="EZ50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FA50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FB50">
+        <v>830.12189134167602</v>
+      </c>
+      <c r="FC50">
+        <v>766.62059578331002</v>
+      </c>
+      <c r="FD50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FE50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FF50">
+        <v>830.12189134167602</v>
+      </c>
+      <c r="FG50">
+        <v>766.62059578331002</v>
+      </c>
+      <c r="FH50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FI50">
+        <v>349.51801732016003</v>
+      </c>
+      <c r="FJ50">
+        <v>830.12189134167602</v>
+      </c>
+      <c r="FK50">
+        <v>766.62059578331002</v>
+      </c>
+      <c r="FP50" t="e">
+        <f>IF(G50=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="51" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>122</v>
       </c>
@@ -19537,8 +22861,84 @@
       <c r="EM51">
         <v>0</v>
       </c>
+      <c r="EN51">
+        <v>-13709.774887154101</v>
+      </c>
+      <c r="EO51">
+        <v>636.23206037590603</v>
+      </c>
+      <c r="EP51">
+        <v>-54161.870869696701</v>
+      </c>
+      <c r="EQ51">
+        <v>87212.537534313597</v>
+      </c>
+      <c r="ER51">
+        <v>-13709.774887154101</v>
+      </c>
+      <c r="ES51">
+        <v>636.23206037590603</v>
+      </c>
+      <c r="ET51">
+        <v>-58720.254140947502</v>
+      </c>
+      <c r="EU51">
+        <v>82875.253157852203</v>
+      </c>
+      <c r="EV51">
+        <v>-13709.774887154101</v>
+      </c>
+      <c r="EW51">
+        <v>636.23206037590603</v>
+      </c>
+      <c r="EX51">
+        <v>-54245.902606704702</v>
+      </c>
+      <c r="EY51">
+        <v>88391.077373975495</v>
+      </c>
+      <c r="EZ51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FA51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FB51">
+        <v>772.34429680274695</v>
+      </c>
+      <c r="FC51">
+        <v>713.26276311124104</v>
+      </c>
+      <c r="FD51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FE51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FF51">
+        <v>772.34429680274695</v>
+      </c>
+      <c r="FG51">
+        <v>713.26276311124104</v>
+      </c>
+      <c r="FH51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FI51">
+        <v>325.19116869212797</v>
+      </c>
+      <c r="FJ51">
+        <v>772.34429680274695</v>
+      </c>
+      <c r="FK51">
+        <v>713.26276311124104</v>
+      </c>
+      <c r="FP51" t="e">
+        <f>IF(G51=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="52" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>123</v>
       </c>
@@ -19959,8 +23359,84 @@
       <c r="EM52">
         <v>0</v>
       </c>
+      <c r="EN52">
+        <v>-1832.8527505311599</v>
+      </c>
+      <c r="EO52">
+        <v>48.535385948181101</v>
+      </c>
+      <c r="EP52">
+        <v>131.14322335149799</v>
+      </c>
+      <c r="EQ52">
+        <v>2691.0167106179201</v>
+      </c>
+      <c r="ER52">
+        <v>-1832.8527505311599</v>
+      </c>
+      <c r="ES52">
+        <v>48.535385948181101</v>
+      </c>
+      <c r="ET52">
+        <v>-457.59360316323898</v>
+      </c>
+      <c r="EU52">
+        <v>2123.9837398919499</v>
+      </c>
+      <c r="EV52">
+        <v>-1832.8527505311599</v>
+      </c>
+      <c r="EW52">
+        <v>48.535385948181101</v>
+      </c>
+      <c r="EX52">
+        <v>71.263604441468004</v>
+      </c>
+      <c r="EY52">
+        <v>2888.9413106392299</v>
+      </c>
+      <c r="EZ52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FA52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FB52">
+        <v>23.405127130017199</v>
+      </c>
+      <c r="FC52">
+        <v>21.610345074909301</v>
+      </c>
+      <c r="FD52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FE52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FF52">
+        <v>23.405127130017199</v>
+      </c>
+      <c r="FG52">
+        <v>21.610345074909301</v>
+      </c>
+      <c r="FH52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FI52">
+        <v>9.8786750712278995</v>
+      </c>
+      <c r="FJ52">
+        <v>23.405127130017199</v>
+      </c>
+      <c r="FK52">
+        <v>21.610345074909301</v>
+      </c>
+      <c r="FP52" t="e">
+        <f>IF(G52=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="53" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>124</v>
       </c>
@@ -20381,8 +23857,84 @@
       <c r="EM53">
         <v>0</v>
       </c>
+      <c r="EN53">
+        <v>-1832.85275704574</v>
+      </c>
+      <c r="EO53">
+        <v>48.535386169661798</v>
+      </c>
+      <c r="EP53">
+        <v>131.14318493160101</v>
+      </c>
+      <c r="EQ53">
+        <v>2691.0167655059299</v>
+      </c>
+      <c r="ER53">
+        <v>-1832.85275704574</v>
+      </c>
+      <c r="ES53">
+        <v>48.535386169661798</v>
+      </c>
+      <c r="ET53">
+        <v>-457.59364328861102</v>
+      </c>
+      <c r="EU53">
+        <v>2123.9837933383301</v>
+      </c>
+      <c r="EV53">
+        <v>-1832.85275704574</v>
+      </c>
+      <c r="EW53">
+        <v>48.535386169661798</v>
+      </c>
+      <c r="EX53">
+        <v>71.263566091314203</v>
+      </c>
+      <c r="EY53">
+        <v>2888.9413657620898</v>
+      </c>
+      <c r="EZ53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FA53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FB53">
+        <v>23.405127161347501</v>
+      </c>
+      <c r="FC53">
+        <v>21.610345103843699</v>
+      </c>
+      <c r="FD53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FE53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FF53">
+        <v>23.405127161347501</v>
+      </c>
+      <c r="FG53">
+        <v>21.610345103843699</v>
+      </c>
+      <c r="FH53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FI53">
+        <v>9.8786750844151996</v>
+      </c>
+      <c r="FJ53">
+        <v>23.405127161347501</v>
+      </c>
+      <c r="FK53">
+        <v>21.610345103843699</v>
+      </c>
+      <c r="FP53" t="e">
+        <f>IF(G53=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="54" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:172" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>125</v>
       </c>
@@ -20806,8 +24358,84 @@
       <c r="EM54">
         <v>0</v>
       </c>
+      <c r="EN54">
+        <v>0</v>
+      </c>
+      <c r="EO54">
+        <v>0</v>
+      </c>
+      <c r="EP54">
+        <v>0</v>
+      </c>
+      <c r="EQ54">
+        <v>0</v>
+      </c>
+      <c r="ER54">
+        <v>0</v>
+      </c>
+      <c r="ES54">
+        <v>0</v>
+      </c>
+      <c r="ET54">
+        <v>0</v>
+      </c>
+      <c r="EU54">
+        <v>0</v>
+      </c>
+      <c r="EV54">
+        <v>0</v>
+      </c>
+      <c r="EW54">
+        <v>0</v>
+      </c>
+      <c r="EX54">
+        <v>0</v>
+      </c>
+      <c r="EY54">
+        <v>0</v>
+      </c>
+      <c r="EZ54">
+        <v>0</v>
+      </c>
+      <c r="FA54">
+        <v>0</v>
+      </c>
+      <c r="FB54">
+        <v>0</v>
+      </c>
+      <c r="FC54">
+        <v>0</v>
+      </c>
+      <c r="FD54">
+        <v>0</v>
+      </c>
+      <c r="FE54">
+        <v>0</v>
+      </c>
+      <c r="FF54">
+        <v>0</v>
+      </c>
+      <c r="FG54">
+        <v>0</v>
+      </c>
+      <c r="FH54">
+        <v>0</v>
+      </c>
+      <c r="FI54">
+        <v>0</v>
+      </c>
+      <c r="FJ54">
+        <v>0</v>
+      </c>
+      <c r="FK54">
+        <v>0</v>
+      </c>
+      <c r="FP54" t="e">
+        <f>IF(G54=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="55" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>126</v>
       </c>
@@ -21228,8 +24856,84 @@
       <c r="EM55">
         <v>0</v>
       </c>
+      <c r="EN55">
+        <v>0</v>
+      </c>
+      <c r="EO55">
+        <v>0</v>
+      </c>
+      <c r="EP55">
+        <v>0</v>
+      </c>
+      <c r="EQ55">
+        <v>0</v>
+      </c>
+      <c r="ER55">
+        <v>0</v>
+      </c>
+      <c r="ES55">
+        <v>0</v>
+      </c>
+      <c r="ET55">
+        <v>0</v>
+      </c>
+      <c r="EU55">
+        <v>0</v>
+      </c>
+      <c r="EV55">
+        <v>0</v>
+      </c>
+      <c r="EW55">
+        <v>0</v>
+      </c>
+      <c r="EX55">
+        <v>0</v>
+      </c>
+      <c r="EY55">
+        <v>0</v>
+      </c>
+      <c r="EZ55">
+        <v>0</v>
+      </c>
+      <c r="FA55">
+        <v>0</v>
+      </c>
+      <c r="FB55">
+        <v>0</v>
+      </c>
+      <c r="FC55">
+        <v>0</v>
+      </c>
+      <c r="FD55">
+        <v>0</v>
+      </c>
+      <c r="FE55">
+        <v>0</v>
+      </c>
+      <c r="FF55">
+        <v>0</v>
+      </c>
+      <c r="FG55">
+        <v>0</v>
+      </c>
+      <c r="FH55">
+        <v>0</v>
+      </c>
+      <c r="FI55">
+        <v>0</v>
+      </c>
+      <c r="FJ55">
+        <v>0</v>
+      </c>
+      <c r="FK55">
+        <v>0</v>
+      </c>
+      <c r="FP55" t="e">
+        <f>IF(G55=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="56" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>127</v>
       </c>
@@ -21647,8 +25351,84 @@
       <c r="EM56">
         <v>0</v>
       </c>
+      <c r="EN56">
+        <v>1340.0637464377701</v>
+      </c>
+      <c r="EO56">
+        <v>40.5829990632094</v>
+      </c>
+      <c r="EP56">
+        <v>-1393.46783842645</v>
+      </c>
+      <c r="EQ56">
+        <v>3139.4452329362002</v>
+      </c>
+      <c r="ER56">
+        <v>1340.0637464377701</v>
+      </c>
+      <c r="ES56">
+        <v>40.5829990632094</v>
+      </c>
+      <c r="ET56">
+        <v>-1673.0380214387501</v>
+      </c>
+      <c r="EU56">
+        <v>2896.8280289320101</v>
+      </c>
+      <c r="EV56">
+        <v>1340.0637464377701</v>
+      </c>
+      <c r="EW56">
+        <v>40.5829990632094</v>
+      </c>
+      <c r="EX56">
+        <v>-1465.5822004147601</v>
+      </c>
+      <c r="EY56">
+        <v>3293.2665423694798</v>
+      </c>
+      <c r="EZ56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FA56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FB56">
+        <v>54.363096444878501</v>
+      </c>
+      <c r="FC56">
+        <v>50.189166700920502</v>
+      </c>
+      <c r="FD56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FE56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FF56">
+        <v>54.363096444878501</v>
+      </c>
+      <c r="FG56">
+        <v>50.189166700920502</v>
+      </c>
+      <c r="FH56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FI56">
+        <v>22.918174510793801</v>
+      </c>
+      <c r="FJ56">
+        <v>54.363096444878501</v>
+      </c>
+      <c r="FK56">
+        <v>50.189166700920502</v>
+      </c>
+      <c r="FP56" t="e">
+        <f>IF(G56=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="57" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>128</v>
       </c>
@@ -22066,8 +25846,84 @@
       <c r="EM57">
         <v>0</v>
       </c>
+      <c r="EN57">
+        <v>1340.18968464211</v>
+      </c>
+      <c r="EO57">
+        <v>39.8347970519049</v>
+      </c>
+      <c r="EP57">
+        <v>-1390.25187082107</v>
+      </c>
+      <c r="EQ57">
+        <v>3142.5232319658999</v>
+      </c>
+      <c r="ER57">
+        <v>1340.18968464211</v>
+      </c>
+      <c r="ES57">
+        <v>39.8347970519049</v>
+      </c>
+      <c r="ET57">
+        <v>-1668.3492122826899</v>
+      </c>
+      <c r="EU57">
+        <v>2898.28608526988</v>
+      </c>
+      <c r="EV57">
+        <v>1340.18968464211</v>
+      </c>
+      <c r="EW57">
+        <v>39.8347970519049</v>
+      </c>
+      <c r="EX57">
+        <v>-1460.3321839745699</v>
+      </c>
+      <c r="EY57">
+        <v>3294.4868652749401</v>
+      </c>
+      <c r="EZ57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FA57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FB57">
+        <v>54.775884594986302</v>
+      </c>
+      <c r="FC57">
+        <v>50.5767976285264</v>
+      </c>
+      <c r="FD57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FE57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FF57">
+        <v>54.775884594986302</v>
+      </c>
+      <c r="FG57">
+        <v>50.5767976285264</v>
+      </c>
+      <c r="FH57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FI57">
+        <v>23.056642591686199</v>
+      </c>
+      <c r="FJ57">
+        <v>54.775884594986302</v>
+      </c>
+      <c r="FK57">
+        <v>50.5767976285264</v>
+      </c>
+      <c r="FP57" t="e">
+        <f>IF(G57=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="58" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>129</v>
       </c>
@@ -22485,8 +26341,84 @@
       <c r="EM58">
         <v>0</v>
       </c>
+      <c r="EN58">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EO58">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EP58">
+        <v>-0.25719962012296299</v>
+      </c>
+      <c r="EQ58">
+        <v>0.77635220911591796</v>
+      </c>
+      <c r="ER58">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="ES58">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="ET58">
+        <v>-0.352910326003118</v>
+      </c>
+      <c r="EU58">
+        <v>0.68359063964742806</v>
+      </c>
+      <c r="EV58">
+        <v>-0.260340800559071</v>
+      </c>
+      <c r="EW58">
+        <v>3.0065592380603998E-2</v>
+      </c>
+      <c r="EX58">
+        <v>-0.25381300353063602</v>
+      </c>
+      <c r="EY58">
+        <v>0.807382056725791</v>
+      </c>
+      <c r="EZ58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FA58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FB58">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FC58">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FD58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FE58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FF58">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FG58">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FH58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FI58">
+        <v>2.6116001138454501E-2</v>
+      </c>
+      <c r="FJ58">
+        <v>6.18683656154769E-2</v>
+      </c>
+      <c r="FK58">
+        <v>5.7123546107140898E-2</v>
+      </c>
+      <c r="FP58" t="e">
+        <f>IF(G58=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="59" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>130</v>
       </c>
@@ -22908,10 +26840,83 @@
         <v>0</v>
       </c>
       <c r="EN59">
-        <v>-1.7681035650000001</v>
+        <v>-0.56181524671236205</v>
+      </c>
+      <c r="EO59">
+        <v>0.62897712052015498</v>
+      </c>
+      <c r="EP59">
+        <v>-1.85106399736862</v>
+      </c>
+      <c r="EQ59">
+        <v>6.1026063008653999</v>
+      </c>
+      <c r="ER59">
+        <v>-0.56181524671236205</v>
+      </c>
+      <c r="ES59">
+        <v>0.62897712052015498</v>
+      </c>
+      <c r="ET59">
+        <v>-2.6233623869857601</v>
+      </c>
+      <c r="EU59">
+        <v>5.3847057848934998</v>
+      </c>
+      <c r="EV59">
+        <v>-0.56181524671236205</v>
+      </c>
+      <c r="EW59">
+        <v>0.62897712052015498</v>
+      </c>
+      <c r="EX59">
+        <v>-1.8920572225116501</v>
+      </c>
+      <c r="EY59">
+        <v>6.3603111190303698</v>
+      </c>
+      <c r="EZ59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FA59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FB59">
+        <v>0.25749495164666197</v>
+      </c>
+      <c r="FC59">
+        <v>0.24224334331378899</v>
+      </c>
+      <c r="FD59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FE59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FF59">
+        <v>0.25749495164666197</v>
+      </c>
+      <c r="FG59">
+        <v>0.24224334331378899</v>
+      </c>
+      <c r="FH59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FI59">
+        <v>6.5697573618659605E-2</v>
+      </c>
+      <c r="FJ59">
+        <v>0.25749495164666197</v>
+      </c>
+      <c r="FK59">
+        <v>0.24224334331378899</v>
+      </c>
+      <c r="FP59" t="e">
+        <f>IF(G59=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>131</v>
       </c>
@@ -23332,8 +27337,84 @@
       <c r="EM60">
         <v>0</v>
       </c>
+      <c r="EN60">
+        <v>29.636558349072899</v>
+      </c>
+      <c r="EO60">
+        <v>11.982060738606499</v>
+      </c>
+      <c r="EP60">
+        <v>-203.68375401688999</v>
+      </c>
+      <c r="EQ60">
+        <v>288.49446473680803</v>
+      </c>
+      <c r="ER60">
+        <v>29.636558349072899</v>
+      </c>
+      <c r="ES60">
+        <v>11.982060738606499</v>
+      </c>
+      <c r="ET60">
+        <v>-210.970246019831</v>
+      </c>
+      <c r="EU60">
+        <v>280.512183435635</v>
+      </c>
+      <c r="EV60">
+        <v>29.636558349072899</v>
+      </c>
+      <c r="EW60">
+        <v>11.982060738606499</v>
+      </c>
+      <c r="EX60">
+        <v>-202.53692198607601</v>
+      </c>
+      <c r="EY60">
+        <v>290.30510670724101</v>
+      </c>
+      <c r="EZ60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FA60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FB60">
+        <v>7.4357935712406</v>
+      </c>
+      <c r="FC60">
+        <v>6.8669611965425696</v>
+      </c>
+      <c r="FD60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FE60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FF60">
+        <v>7.4357935712406</v>
+      </c>
+      <c r="FG60">
+        <v>6.8669611965425696</v>
+      </c>
+      <c r="FH60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FI60">
+        <v>3.1309090730157498</v>
+      </c>
+      <c r="FJ60">
+        <v>7.4357935712406</v>
+      </c>
+      <c r="FK60">
+        <v>6.8669611965425696</v>
+      </c>
+      <c r="FP60" t="e">
+        <f>IF(G60=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="61" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>132</v>
       </c>
@@ -23755,10 +27836,83 @@
         <v>0</v>
       </c>
       <c r="EN61">
-        <v>-1.0807294905</v>
+        <v>-7.8423225097979707E-2</v>
+      </c>
+      <c r="EO61">
+        <v>0.24070353579550099</v>
+      </c>
+      <c r="EP61">
+        <v>-3.2902966118888301E-2</v>
+      </c>
+      <c r="EQ61">
+        <v>0.331125047950382</v>
+      </c>
+      <c r="ER61">
+        <v>-7.8423225097979707E-2</v>
+      </c>
+      <c r="ES61">
+        <v>0.24070353579550099</v>
+      </c>
+      <c r="ET61">
+        <v>-6.8863900622827906E-2</v>
+      </c>
+      <c r="EU61">
+        <v>0.30435986683261002</v>
+      </c>
+      <c r="EV61">
+        <v>-7.8423225097979707E-2</v>
+      </c>
+      <c r="EW61">
+        <v>0.24070353579550099</v>
+      </c>
+      <c r="EX61">
+        <v>-3.2485091686674003E-2</v>
+      </c>
+      <c r="EY61">
+        <v>0.34181752596883103</v>
+      </c>
+      <c r="EZ61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FA61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FB61">
+        <v>2.1190138354599E-2</v>
+      </c>
+      <c r="FC61">
+        <v>1.9836068465763398E-2</v>
+      </c>
+      <c r="FD61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FE61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FF61">
+        <v>2.1190138354599E-2</v>
+      </c>
+      <c r="FG61">
+        <v>1.9836068465763398E-2</v>
+      </c>
+      <c r="FH61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FI61">
+        <v>6.2850966177158702E-3</v>
+      </c>
+      <c r="FJ61">
+        <v>2.1190138354599E-2</v>
+      </c>
+      <c r="FK61">
+        <v>1.9836068465763398E-2</v>
+      </c>
+      <c r="FP61" t="e">
+        <f>IF(G61=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>133</v>
       </c>
@@ -24180,10 +28334,83 @@
         <v>0</v>
       </c>
       <c r="EN62">
-        <v>-890.22064049999994</v>
+        <v>1340.3240872383301</v>
+      </c>
+      <c r="EO62">
+        <v>40.552933470828798</v>
+      </c>
+      <c r="EP62">
+        <v>-1393.21063880632</v>
+      </c>
+      <c r="EQ62">
+        <v>3138.6688807270798</v>
+      </c>
+      <c r="ER62">
+        <v>1340.3240872383301</v>
+      </c>
+      <c r="ES62">
+        <v>40.552933470828798</v>
+      </c>
+      <c r="ET62">
+        <v>-1672.6851111127501</v>
+      </c>
+      <c r="EU62">
+        <v>2896.1444382923701</v>
+      </c>
+      <c r="EV62">
+        <v>1340.3240872383301</v>
+      </c>
+      <c r="EW62">
+        <v>40.552933470828798</v>
+      </c>
+      <c r="EX62">
+        <v>-1465.3283874112301</v>
+      </c>
+      <c r="EY62">
+        <v>3292.4591603127601</v>
+      </c>
+      <c r="EZ62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FA62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FB62">
+        <v>54.301228079262998</v>
+      </c>
+      <c r="FC62">
+        <v>50.132043154813303</v>
+      </c>
+      <c r="FD62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FE62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FF62">
+        <v>54.301228079262998</v>
+      </c>
+      <c r="FG62">
+        <v>50.132043154813303</v>
+      </c>
+      <c r="FH62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FI62">
+        <v>22.8920585096553</v>
+      </c>
+      <c r="FJ62">
+        <v>54.301228079262998</v>
+      </c>
+      <c r="FK62">
+        <v>50.132043154813303</v>
+      </c>
+      <c r="FP62" t="e">
+        <f>IF(G62=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>134</v>
       </c>
@@ -24604,8 +28831,84 @@
       <c r="EM63">
         <v>0</v>
       </c>
+      <c r="EN63">
+        <v>1340.45002544267</v>
+      </c>
+      <c r="EO63">
+        <v>39.804731459524298</v>
+      </c>
+      <c r="EP63">
+        <v>-1389.99467120094</v>
+      </c>
+      <c r="EQ63">
+        <v>3141.7468797567899</v>
+      </c>
+      <c r="ER63">
+        <v>1340.45002544267</v>
+      </c>
+      <c r="ES63">
+        <v>39.804731459524298</v>
+      </c>
+      <c r="ET63">
+        <v>-1667.9963019566901</v>
+      </c>
+      <c r="EU63">
+        <v>2897.60249463023</v>
+      </c>
+      <c r="EV63">
+        <v>1340.45002544267</v>
+      </c>
+      <c r="EW63">
+        <v>39.804731459524298</v>
+      </c>
+      <c r="EX63">
+        <v>-1460.0783709710399</v>
+      </c>
+      <c r="EY63">
+        <v>3293.67948321821</v>
+      </c>
+      <c r="EZ63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FA63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FB63">
+        <v>54.714016229370799</v>
+      </c>
+      <c r="FC63">
+        <v>50.519674082419201</v>
+      </c>
+      <c r="FD63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FE63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FF63">
+        <v>54.714016229370799</v>
+      </c>
+      <c r="FG63">
+        <v>50.519674082419201</v>
+      </c>
+      <c r="FH63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FI63">
+        <v>23.030526590547801</v>
+      </c>
+      <c r="FJ63">
+        <v>54.714016229370799</v>
+      </c>
+      <c r="FK63">
+        <v>50.519674082419201</v>
+      </c>
+      <c r="FP63" t="e">
+        <f>IF(G63=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="64" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>135</v>
       </c>
@@ -25026,8 +29329,84 @@
       <c r="EM64">
         <v>0</v>
       </c>
+      <c r="EN64">
+        <v>-6.0963427386105197E-2</v>
+      </c>
+      <c r="EO64">
+        <v>1.7933745763597301E-2</v>
+      </c>
+      <c r="EP64">
+        <v>-0.137908576487587</v>
+      </c>
+      <c r="EQ64">
+        <v>0.43287861800241201</v>
+      </c>
+      <c r="ER64">
+        <v>-6.0963427386105197E-2</v>
+      </c>
+      <c r="ES64">
+        <v>1.7933745763597301E-2</v>
+      </c>
+      <c r="ET64">
+        <v>-0.16388607831712901</v>
+      </c>
+      <c r="EU64">
+        <v>0.34667364388875499</v>
+      </c>
+      <c r="EV64">
+        <v>-6.0963427386105197E-2</v>
+      </c>
+      <c r="EW64">
+        <v>1.7933745763597301E-2</v>
+      </c>
+      <c r="EX64">
+        <v>-0.14006400770656299</v>
+      </c>
+      <c r="EY64">
+        <v>0.44948544315403399</v>
+      </c>
+      <c r="EZ64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FA64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FB64">
+        <v>3.0029147161257999E-2</v>
+      </c>
+      <c r="FC64">
+        <v>2.7319380486246402E-2</v>
+      </c>
+      <c r="FD64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FE64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FF64">
+        <v>3.0029147161257999E-2</v>
+      </c>
+      <c r="FG64">
+        <v>2.7319380486246402E-2</v>
+      </c>
+      <c r="FH64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FI64">
+        <v>7.6479079971102804E-3</v>
+      </c>
+      <c r="FJ64">
+        <v>3.0029147161257999E-2</v>
+      </c>
+      <c r="FK64">
+        <v>2.7319380486246402E-2</v>
+      </c>
+      <c r="FP64" t="e">
+        <f>IF(G64=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="65" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>136</v>
       </c>
@@ -25448,8 +29827,84 @@
       <c r="EM65">
         <v>0</v>
       </c>
+      <c r="EN65">
+        <v>-1.49332494877448E-8</v>
+      </c>
+      <c r="EO65">
+        <v>2.11142635363204E-7</v>
+      </c>
+      <c r="EP65">
+        <v>-5.3524765905666805E-7</v>
+      </c>
+      <c r="EQ65">
+        <v>1.1715222185622201E-6</v>
+      </c>
+      <c r="ER65">
+        <v>-1.49332494877448E-8</v>
+      </c>
+      <c r="ES65">
+        <v>2.11142635363204E-7</v>
+      </c>
+      <c r="ET65">
+        <v>-5.9278800173046401E-7</v>
+      </c>
+      <c r="EU65">
+        <v>1.1200478026169799E-6</v>
+      </c>
+      <c r="EV65">
+        <v>-1.49332494877448E-8</v>
+      </c>
+      <c r="EW65">
+        <v>2.11142635363204E-7</v>
+      </c>
+      <c r="EX65">
+        <v>-5.3474849634300704E-7</v>
+      </c>
+      <c r="EY65">
+        <v>1.1891009877606401E-6</v>
+      </c>
+      <c r="EZ65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FA65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FB65">
+        <v>3.1296750721597001E-8</v>
+      </c>
+      <c r="FC65">
+        <v>2.88988013946169E-8</v>
+      </c>
+      <c r="FD65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FE65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FF65">
+        <v>3.1296750721597001E-8</v>
+      </c>
+      <c r="FG65">
+        <v>2.88988013946169E-8</v>
+      </c>
+      <c r="FH65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FI65">
+        <v>1.31706991772498E-8</v>
+      </c>
+      <c r="FJ65">
+        <v>3.1296750721597001E-8</v>
+      </c>
+      <c r="FK65">
+        <v>2.88988013946169E-8</v>
+      </c>
+      <c r="FP65" t="e">
+        <f>IF(G65=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="66" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>137</v>
       </c>
@@ -25870,8 +30325,84 @@
       <c r="EM66">
         <v>0</v>
       </c>
+      <c r="EN66">
+        <v>2.4655693759862001E-5</v>
+      </c>
+      <c r="EO66">
+        <v>2.8521856704738498E-5</v>
+      </c>
+      <c r="EP66">
+        <v>-4.8218066873665302E-5</v>
+      </c>
+      <c r="EQ66">
+        <v>8.2571479985068096E-5</v>
+      </c>
+      <c r="ER66">
+        <v>2.4655693759862001E-5</v>
+      </c>
+      <c r="ES66">
+        <v>2.8521856704738498E-5</v>
+      </c>
+      <c r="ET66">
+        <v>-5.2244908814577003E-5</v>
+      </c>
+      <c r="EU66">
+        <v>7.8271217308507096E-5</v>
+      </c>
+      <c r="EV66">
+        <v>2.4655693759862001E-5</v>
+      </c>
+      <c r="EW66">
+        <v>2.8521856704738498E-5</v>
+      </c>
+      <c r="EX66">
+        <v>-4.8099566159973803E-5</v>
+      </c>
+      <c r="EY66">
+        <v>8.3794855887336404E-5</v>
+      </c>
+      <c r="EZ66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FA66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FB66">
+        <v>2.29158755844366E-6</v>
+      </c>
+      <c r="FC66">
+        <v>2.1162588994155299E-6</v>
+      </c>
+      <c r="FD66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FE66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FF66">
+        <v>2.29158755844366E-6</v>
+      </c>
+      <c r="FG66">
+        <v>2.1162588994155299E-6</v>
+      </c>
+      <c r="FH66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FI66">
+        <v>9.6502089509554401E-7</v>
+      </c>
+      <c r="FJ66">
+        <v>2.29158755844366E-6</v>
+      </c>
+      <c r="FK66">
+        <v>2.1162588994155299E-6</v>
+      </c>
+      <c r="FP66" t="e">
+        <f>IF(G66=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="67" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>138</v>
       </c>
@@ -26293,10 +30824,83 @@
         <v>0</v>
       </c>
       <c r="EN67">
-        <v>-2.3572295040000004E-5</v>
+        <v>6.2888798497288699E-11</v>
+      </c>
+      <c r="EO67">
+        <v>-2.0924383252385202E-12</v>
+      </c>
+      <c r="EP67">
+        <v>3.9094349807231501E-10</v>
+      </c>
+      <c r="EQ67">
+        <v>-5.5345533189116995E-10</v>
+      </c>
+      <c r="ER67">
+        <v>6.2888798497288699E-11</v>
+      </c>
+      <c r="ES67">
+        <v>-2.0924383252385202E-12</v>
+      </c>
+      <c r="ET67">
+        <v>4.0725971080873702E-10</v>
+      </c>
+      <c r="EU67">
+        <v>-5.39771134908246E-10</v>
+      </c>
+      <c r="EV67">
+        <v>6.2888798497288699E-11</v>
+      </c>
+      <c r="EW67">
+        <v>-2.0924383252385202E-12</v>
+      </c>
+      <c r="EX67">
+        <v>3.9011269560555201E-10</v>
+      </c>
+      <c r="EY67">
+        <v>-5.5547986997771903E-10</v>
+      </c>
+      <c r="EZ67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FA67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FB67">
+        <v>-2.8311672786477999E-13</v>
+      </c>
+      <c r="FC67">
+        <v>-2.6147311846771399E-13</v>
+      </c>
+      <c r="FD67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FE67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FF67">
+        <v>-2.8311672786477999E-13</v>
+      </c>
+      <c r="FG67">
+        <v>-2.6147311846771399E-13</v>
+      </c>
+      <c r="FH67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FI67">
+        <v>-1.1912877332024499E-13</v>
+      </c>
+      <c r="FJ67">
+        <v>-2.8311672786477999E-13</v>
+      </c>
+      <c r="FK67">
+        <v>-2.6147311846771399E-13</v>
+      </c>
+      <c r="FP67" t="e">
+        <f>IF(G67=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>139</v>
       </c>
@@ -26717,8 +31321,84 @@
       <c r="EM68">
         <v>0</v>
       </c>
+      <c r="EN68">
+        <v>-1058.8664224613599</v>
+      </c>
+      <c r="EO68">
+        <v>79.929536052180495</v>
+      </c>
+      <c r="EP68">
+        <v>-7963.2004572709202</v>
+      </c>
+      <c r="EQ68">
+        <v>11032.960614141401</v>
+      </c>
+      <c r="ER68">
+        <v>-1058.8664224613599</v>
+      </c>
+      <c r="ES68">
+        <v>79.929536052180495</v>
+      </c>
+      <c r="ET68">
+        <v>-8261.7713794315005</v>
+      </c>
+      <c r="EU68">
+        <v>10755.212044350999</v>
+      </c>
+      <c r="EV68">
+        <v>-1058.8664224613599</v>
+      </c>
+      <c r="EW68">
+        <v>79.929536052180495</v>
+      </c>
+      <c r="EX68">
+        <v>-7936.43130801598</v>
+      </c>
+      <c r="EY68">
+        <v>11080.8454217902</v>
+      </c>
+      <c r="EZ68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FA68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FB68">
+        <v>102.991947584456</v>
+      </c>
+      <c r="FC68">
+        <v>95.113417792780893</v>
+      </c>
+      <c r="FD68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FE68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FF68">
+        <v>102.991947584456</v>
+      </c>
+      <c r="FG68">
+        <v>95.113417792780893</v>
+      </c>
+      <c r="FH68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FI68">
+        <v>43.364282381502299</v>
+      </c>
+      <c r="FJ68">
+        <v>102.991947584456</v>
+      </c>
+      <c r="FK68">
+        <v>95.113417792780893</v>
+      </c>
+      <c r="FP68" t="e">
+        <f>IF(G68=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="69" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>140</v>
       </c>
@@ -27140,10 +31820,83 @@
         <v>0</v>
       </c>
       <c r="EN69">
-        <v>-41.013833849999997</v>
+        <v>-15.980391688760699</v>
+      </c>
+      <c r="EO69">
+        <v>5.2893314710755996</v>
+      </c>
+      <c r="EP69">
+        <v>-60.874183503184597</v>
+      </c>
+      <c r="EQ69">
+        <v>106.988875826193</v>
+      </c>
+      <c r="ER69">
+        <v>-15.980391688760699</v>
+      </c>
+      <c r="ES69">
+        <v>5.2893314710755996</v>
+      </c>
+      <c r="ET69">
+        <v>-66.191254673503806</v>
+      </c>
+      <c r="EU69">
+        <v>99.495733642505698</v>
+      </c>
+      <c r="EV69">
+        <v>-15.980391688760699</v>
+      </c>
+      <c r="EW69">
+        <v>5.2893314710755996</v>
+      </c>
+      <c r="EX69">
+        <v>-59.382094662896499</v>
+      </c>
+      <c r="EY69">
+        <v>108.29796668199801</v>
+      </c>
+      <c r="EZ69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FA69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FB69">
+        <v>6.8763860271194197</v>
+      </c>
+      <c r="FC69">
+        <v>6.5295903567406102</v>
+      </c>
+      <c r="FD69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FE69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FF69">
+        <v>6.8763860271194197</v>
+      </c>
+      <c r="FG69">
+        <v>6.5295903567406102</v>
+      </c>
+      <c r="FH69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FI69">
+        <v>1.4820494075135799</v>
+      </c>
+      <c r="FJ69">
+        <v>6.8763860271194197</v>
+      </c>
+      <c r="FK69">
+        <v>6.5295903567406102</v>
+      </c>
+      <c r="FP69" t="e">
+        <f>IF(G69=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:172" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -27567,8 +32320,84 @@
       <c r="EM70">
         <v>0</v>
       </c>
+      <c r="EN70">
+        <v>0</v>
+      </c>
+      <c r="EO70">
+        <v>0</v>
+      </c>
+      <c r="EP70">
+        <v>0</v>
+      </c>
+      <c r="EQ70">
+        <v>0</v>
+      </c>
+      <c r="ER70">
+        <v>0</v>
+      </c>
+      <c r="ES70">
+        <v>0</v>
+      </c>
+      <c r="ET70">
+        <v>0</v>
+      </c>
+      <c r="EU70">
+        <v>0</v>
+      </c>
+      <c r="EV70">
+        <v>0</v>
+      </c>
+      <c r="EW70">
+        <v>0</v>
+      </c>
+      <c r="EX70">
+        <v>0</v>
+      </c>
+      <c r="EY70">
+        <v>0</v>
+      </c>
+      <c r="EZ70">
+        <v>0</v>
+      </c>
+      <c r="FA70">
+        <v>0</v>
+      </c>
+      <c r="FB70">
+        <v>0</v>
+      </c>
+      <c r="FC70">
+        <v>0</v>
+      </c>
+      <c r="FD70">
+        <v>0</v>
+      </c>
+      <c r="FE70">
+        <v>0</v>
+      </c>
+      <c r="FF70">
+        <v>0</v>
+      </c>
+      <c r="FG70">
+        <v>0</v>
+      </c>
+      <c r="FH70">
+        <v>0</v>
+      </c>
+      <c r="FI70">
+        <v>0</v>
+      </c>
+      <c r="FJ70">
+        <v>0</v>
+      </c>
+      <c r="FK70">
+        <v>0</v>
+      </c>
+      <c r="FP70" t="e">
+        <f>IF(G70=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="71" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>142</v>
       </c>
@@ -27989,8 +32818,84 @@
       <c r="EM71">
         <v>0</v>
       </c>
+      <c r="EN71">
+        <v>-73432.872139031795</v>
+      </c>
+      <c r="EO71">
+        <v>1898.1108612380999</v>
+      </c>
+      <c r="EP71">
+        <v>-4354.5192952896996</v>
+      </c>
+      <c r="EQ71">
+        <v>215614.08098532</v>
+      </c>
+      <c r="ER71">
+        <v>-73432.872139031795</v>
+      </c>
+      <c r="ES71">
+        <v>1898.1108612380999</v>
+      </c>
+      <c r="ET71">
+        <v>-47680.862808394697</v>
+      </c>
+      <c r="EU71">
+        <v>173879.36579306901</v>
+      </c>
+      <c r="EV71">
+        <v>-73432.872139031795</v>
+      </c>
+      <c r="EW71">
+        <v>1898.1108612380999</v>
+      </c>
+      <c r="EX71">
+        <v>-8891.7683647428894</v>
+      </c>
+      <c r="EY71">
+        <v>230056.68414210901</v>
+      </c>
+      <c r="EZ71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FA71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FB71">
+        <v>693.43866187791195</v>
+      </c>
+      <c r="FC71">
+        <v>640.39643413021997</v>
+      </c>
+      <c r="FD71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FE71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FF71">
+        <v>693.43866187791195</v>
+      </c>
+      <c r="FG71">
+        <v>640.39643413021997</v>
+      </c>
+      <c r="FH71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FI71">
+        <v>291.95016897484902</v>
+      </c>
+      <c r="FJ71">
+        <v>693.43866187791195</v>
+      </c>
+      <c r="FK71">
+        <v>640.39643413021997</v>
+      </c>
+      <c r="FP71" t="e">
+        <f>IF(G71=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="72" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>143</v>
       </c>
@@ -28411,8 +33316,84 @@
       <c r="EM72">
         <v>0</v>
       </c>
+      <c r="EN72">
+        <v>-0.51758357883828598</v>
+      </c>
+      <c r="EO72">
+        <v>0.14917788312893501</v>
+      </c>
+      <c r="EP72">
+        <v>-8.00851121405646</v>
+      </c>
+      <c r="EQ72">
+        <v>10.4321013494064</v>
+      </c>
+      <c r="ER72">
+        <v>-0.51758357883828598</v>
+      </c>
+      <c r="ES72">
+        <v>0.14917788312893501</v>
+      </c>
+      <c r="ET72">
+        <v>-8.2061279139131393</v>
+      </c>
+      <c r="EU72">
+        <v>10.185882609075801</v>
+      </c>
+      <c r="EV72">
+        <v>-0.51758357883828598</v>
+      </c>
+      <c r="EW72">
+        <v>0.14917788312893501</v>
+      </c>
+      <c r="EX72">
+        <v>-7.9590157612582004</v>
+      </c>
+      <c r="EY72">
+        <v>10.4863215979038</v>
+      </c>
+      <c r="EZ72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FA72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FB72">
+        <v>0.31141411920316198</v>
+      </c>
+      <c r="FC72">
+        <v>0.28759091807195603</v>
+      </c>
+      <c r="FD72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FE72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FF72">
+        <v>0.31141411920316198</v>
+      </c>
+      <c r="FG72">
+        <v>0.28759091807195603</v>
+      </c>
+      <c r="FH72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FI72">
+        <v>0.13112062866131299</v>
+      </c>
+      <c r="FJ72">
+        <v>0.31141411920316198</v>
+      </c>
+      <c r="FK72">
+        <v>0.28759091807195603</v>
+      </c>
+      <c r="FP72" t="e">
+        <f>IF(G72=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="73" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>144</v>
       </c>
@@ -28833,8 +33814,84 @@
       <c r="EM73">
         <v>0</v>
       </c>
+      <c r="EN73">
+        <v>-5.5994811924117695E-7</v>
+      </c>
+      <c r="EO73">
+        <v>5.5753109923906595E-7</v>
+      </c>
+      <c r="EP73">
+        <v>-1.46082904157295E-5</v>
+      </c>
+      <c r="EQ73">
+        <v>1.9002443673823201E-5</v>
+      </c>
+      <c r="ER73">
+        <v>-5.5994811924117695E-7</v>
+      </c>
+      <c r="ES73">
+        <v>5.5753109923906595E-7</v>
+      </c>
+      <c r="ET73">
+        <v>-1.4909563461190599E-5</v>
+      </c>
+      <c r="EU73">
+        <v>1.86123894177772E-5</v>
+      </c>
+      <c r="EV73">
+        <v>-5.5994811924117695E-7</v>
+      </c>
+      <c r="EW73">
+        <v>5.5753109923906595E-7</v>
+      </c>
+      <c r="EX73">
+        <v>-1.45055764985652E-5</v>
+      </c>
+      <c r="EY73">
+        <v>1.9076594630516899E-5</v>
+      </c>
+      <c r="EZ73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FA73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FB73">
+        <v>5.7967634888805105E-7</v>
+      </c>
+      <c r="FC73">
+        <v>5.3532851572592299E-7</v>
+      </c>
+      <c r="FD73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FE73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FF73">
+        <v>5.7967634888805105E-7</v>
+      </c>
+      <c r="FG73">
+        <v>5.3532851572592299E-7</v>
+      </c>
+      <c r="FH73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FI73">
+        <v>2.4407080017940802E-7</v>
+      </c>
+      <c r="FJ73">
+        <v>5.7967634888805105E-7</v>
+      </c>
+      <c r="FK73">
+        <v>5.3532851572592299E-7</v>
+      </c>
+      <c r="FP73" t="e">
+        <f>IF(G73=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="74" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>145</v>
       </c>
@@ -29255,8 +34312,84 @@
       <c r="EM74">
         <v>0</v>
       </c>
+      <c r="EN74">
+        <v>-4.7042812527647302E-8</v>
+      </c>
+      <c r="EO74">
+        <v>2.9556925885582201E-8</v>
+      </c>
+      <c r="EP74">
+        <v>-4.27137676776865E-8</v>
+      </c>
+      <c r="EQ74">
+        <v>1.3550217686465501E-7</v>
+      </c>
+      <c r="ER74">
+        <v>-4.7042812527647302E-8</v>
+      </c>
+      <c r="ES74">
+        <v>2.9556925885582201E-8</v>
+      </c>
+      <c r="ET74">
+        <v>-5.9008486692530502E-8</v>
+      </c>
+      <c r="EU74">
+        <v>1.22524340390928E-7</v>
+      </c>
+      <c r="EV74">
+        <v>-4.7042812527647302E-8</v>
+      </c>
+      <c r="EW74">
+        <v>2.9556925885582201E-8</v>
+      </c>
+      <c r="EX74">
+        <v>-4.5620442537112899E-8</v>
+      </c>
+      <c r="EY74">
+        <v>1.4217830116733001E-7</v>
+      </c>
+      <c r="EZ74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FA74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FB74">
+        <v>4.8216461451990996E-10</v>
+      </c>
+      <c r="FC74">
+        <v>4.4239759956396699E-10</v>
+      </c>
+      <c r="FD74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FE74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FF74">
+        <v>4.8216461451990996E-10</v>
+      </c>
+      <c r="FG74">
+        <v>4.4239759956396699E-10</v>
+      </c>
+      <c r="FH74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FI74">
+        <v>1.9439899927456799E-10</v>
+      </c>
+      <c r="FJ74">
+        <v>4.8216461451990996E-10</v>
+      </c>
+      <c r="FK74">
+        <v>4.4239759956396699E-10</v>
+      </c>
+      <c r="FP74" t="e">
+        <f>IF(G74=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="75" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>146</v>
       </c>
@@ -29677,8 +34810,84 @@
       <c r="EM75">
         <v>0</v>
       </c>
+      <c r="EN75">
+        <v>3.07102693863289E-5</v>
+      </c>
+      <c r="EO75">
+        <v>3.5357806635858498E-5</v>
+      </c>
+      <c r="EP75">
+        <v>-4.9589829175702399E-5</v>
+      </c>
+      <c r="EQ75">
+        <v>9.0396534405129002E-5</v>
+      </c>
+      <c r="ER75">
+        <v>3.07102693863289E-5</v>
+      </c>
+      <c r="ES75">
+        <v>3.5357806635858498E-5</v>
+      </c>
+      <c r="ET75">
+        <v>-5.4551183073431997E-5</v>
+      </c>
+      <c r="EU75">
+        <v>8.5197871217925199E-5</v>
+      </c>
+      <c r="EV75">
+        <v>3.07102693863289E-5</v>
+      </c>
+      <c r="EW75">
+        <v>3.5357806635858498E-5</v>
+      </c>
+      <c r="EX75">
+        <v>-4.94792202772291E-5</v>
+      </c>
+      <c r="EY75">
+        <v>9.1892725943161995E-5</v>
+      </c>
+      <c r="EZ75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FA75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FB75">
+        <v>2.5836750527688201E-6</v>
+      </c>
+      <c r="FC75">
+        <v>2.38593452709275E-6</v>
+      </c>
+      <c r="FD75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FE75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FF75">
+        <v>2.5836750527688201E-6</v>
+      </c>
+      <c r="FG75">
+        <v>2.38593452709275E-6</v>
+      </c>
+      <c r="FH75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FI75">
+        <v>1.08837909830045E-6</v>
+      </c>
+      <c r="FJ75">
+        <v>2.5836750527688201E-6</v>
+      </c>
+      <c r="FK75">
+        <v>2.38593452709275E-6</v>
+      </c>
+      <c r="FP75" t="e">
+        <f>IF(G75=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="76" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>147</v>
       </c>
@@ -30099,8 +35308,84 @@
       <c r="EM76">
         <v>0</v>
       </c>
+      <c r="EN76">
+        <v>-1.0120606711987301E-9</v>
+      </c>
+      <c r="EO76">
+        <v>3.12141918031687E-8</v>
+      </c>
+      <c r="EP76">
+        <v>7.2339275616725699E-10</v>
+      </c>
+      <c r="EQ76">
+        <v>6.5996145496269903E-9</v>
+      </c>
+      <c r="ER76">
+        <v>-1.0120606711987301E-9</v>
+      </c>
+      <c r="ES76">
+        <v>3.12141918031687E-8</v>
+      </c>
+      <c r="ET76">
+        <v>1.0855792224937E-10</v>
+      </c>
+      <c r="EU76">
+        <v>6.0433885032250404E-9</v>
+      </c>
+      <c r="EV76">
+        <v>-1.0120606711987301E-9</v>
+      </c>
+      <c r="EW76">
+        <v>3.12141918031687E-8</v>
+      </c>
+      <c r="EX76">
+        <v>6.6268826212189603E-10</v>
+      </c>
+      <c r="EY76">
+        <v>6.8134584013667398E-9</v>
+      </c>
+      <c r="EZ76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FA76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FB76">
+        <v>1.3165340644488999E-10</v>
+      </c>
+      <c r="FC76">
+        <v>1.20849703345889E-10</v>
+      </c>
+      <c r="FD76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FE76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FF76">
+        <v>1.3165340644488999E-10</v>
+      </c>
+      <c r="FG76">
+        <v>1.20849703345889E-10</v>
+      </c>
+      <c r="FH76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FI76">
+        <v>5.3265235520599298E-11</v>
+      </c>
+      <c r="FJ76">
+        <v>1.3165340644488999E-10</v>
+      </c>
+      <c r="FK76">
+        <v>1.20849703345889E-10</v>
+      </c>
+      <c r="FP76" t="e">
+        <f>IF(G76=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="77" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:172" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>148</v>
       </c>
@@ -30524,8 +35809,84 @@
       <c r="EM77">
         <v>0</v>
       </c>
+      <c r="EN77">
+        <v>0</v>
+      </c>
+      <c r="EO77">
+        <v>0</v>
+      </c>
+      <c r="EP77">
+        <v>0</v>
+      </c>
+      <c r="EQ77">
+        <v>0</v>
+      </c>
+      <c r="ER77">
+        <v>0</v>
+      </c>
+      <c r="ES77">
+        <v>0</v>
+      </c>
+      <c r="ET77">
+        <v>0</v>
+      </c>
+      <c r="EU77">
+        <v>0</v>
+      </c>
+      <c r="EV77">
+        <v>0</v>
+      </c>
+      <c r="EW77">
+        <v>0</v>
+      </c>
+      <c r="EX77">
+        <v>0</v>
+      </c>
+      <c r="EY77">
+        <v>0</v>
+      </c>
+      <c r="EZ77">
+        <v>0</v>
+      </c>
+      <c r="FA77">
+        <v>0</v>
+      </c>
+      <c r="FB77">
+        <v>0</v>
+      </c>
+      <c r="FC77">
+        <v>0</v>
+      </c>
+      <c r="FD77">
+        <v>0</v>
+      </c>
+      <c r="FE77">
+        <v>0</v>
+      </c>
+      <c r="FF77">
+        <v>0</v>
+      </c>
+      <c r="FG77">
+        <v>0</v>
+      </c>
+      <c r="FH77">
+        <v>0</v>
+      </c>
+      <c r="FI77">
+        <v>0</v>
+      </c>
+      <c r="FJ77">
+        <v>0</v>
+      </c>
+      <c r="FK77">
+        <v>0</v>
+      </c>
+      <c r="FP77" t="e">
+        <f>IF(G77=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="78" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:172" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>149</v>
       </c>
@@ -30946,8 +36307,84 @@
       <c r="EM78">
         <v>0</v>
       </c>
+      <c r="EN78">
+        <v>0</v>
+      </c>
+      <c r="EO78">
+        <v>0</v>
+      </c>
+      <c r="EP78">
+        <v>0</v>
+      </c>
+      <c r="EQ78">
+        <v>0</v>
+      </c>
+      <c r="ER78">
+        <v>0</v>
+      </c>
+      <c r="ES78">
+        <v>0</v>
+      </c>
+      <c r="ET78">
+        <v>0</v>
+      </c>
+      <c r="EU78">
+        <v>0</v>
+      </c>
+      <c r="EV78">
+        <v>0</v>
+      </c>
+      <c r="EW78">
+        <v>0</v>
+      </c>
+      <c r="EX78">
+        <v>0</v>
+      </c>
+      <c r="EY78">
+        <v>0</v>
+      </c>
+      <c r="EZ78">
+        <v>0</v>
+      </c>
+      <c r="FA78">
+        <v>0</v>
+      </c>
+      <c r="FB78">
+        <v>0</v>
+      </c>
+      <c r="FC78">
+        <v>0</v>
+      </c>
+      <c r="FD78">
+        <v>0</v>
+      </c>
+      <c r="FE78">
+        <v>0</v>
+      </c>
+      <c r="FF78">
+        <v>0</v>
+      </c>
+      <c r="FG78">
+        <v>0</v>
+      </c>
+      <c r="FH78">
+        <v>0</v>
+      </c>
+      <c r="FI78">
+        <v>0</v>
+      </c>
+      <c r="FJ78">
+        <v>0</v>
+      </c>
+      <c r="FK78">
+        <v>0</v>
+      </c>
+      <c r="FP78" t="e">
+        <f>IF(G78=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="79" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>150</v>
       </c>
@@ -31365,8 +36802,84 @@
       <c r="EM79">
         <v>0</v>
       </c>
+      <c r="EN79">
+        <v>141.21580068077299</v>
+      </c>
+      <c r="EO79">
+        <v>2.2556033175426302</v>
+      </c>
+      <c r="EP79">
+        <v>-267.95211409293</v>
+      </c>
+      <c r="EQ79">
+        <v>491.42502708114603</v>
+      </c>
+      <c r="ER79">
+        <v>141.21580068077299</v>
+      </c>
+      <c r="ES79">
+        <v>2.2556033175426302</v>
+      </c>
+      <c r="ET79">
+        <v>-288.770522995367</v>
+      </c>
+      <c r="EU79">
+        <v>428.76223511783797</v>
+      </c>
+      <c r="EV79">
+        <v>141.21580068077299</v>
+      </c>
+      <c r="EW79">
+        <v>2.2556033175426302</v>
+      </c>
+      <c r="EX79">
+        <v>-272.28712196136797</v>
+      </c>
+      <c r="EY79">
+        <v>503.09503961180201</v>
+      </c>
+      <c r="EZ79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FA79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FB79">
+        <v>2.8622389534650998</v>
+      </c>
+      <c r="FC79">
+        <v>2.6427216255425301</v>
+      </c>
+      <c r="FD79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FE79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FF79">
+        <v>2.8622389534650998</v>
+      </c>
+      <c r="FG79">
+        <v>2.6427216255425301</v>
+      </c>
+      <c r="FH79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FI79">
+        <v>1.20824717902639</v>
+      </c>
+      <c r="FJ79">
+        <v>2.8622389534650998</v>
+      </c>
+      <c r="FK79">
+        <v>2.6427216255425301</v>
+      </c>
+      <c r="FP79" t="e">
+        <f>IF(G79=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="80" spans="3:144" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:172" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>151</v>
       </c>
@@ -31784,8 +37297,84 @@
       <c r="EM80">
         <v>0</v>
       </c>
+      <c r="EN80">
+        <v>-59.3401862618718</v>
+      </c>
+      <c r="EO80">
+        <v>1.3797412911887801</v>
+      </c>
+      <c r="EP80">
+        <v>-222.45315791434601</v>
+      </c>
+      <c r="EQ80">
+        <v>383.231584324697</v>
+      </c>
+      <c r="ER80">
+        <v>-59.3401862618718</v>
+      </c>
+      <c r="ES80">
+        <v>1.3797412911887801</v>
+      </c>
+      <c r="ET80">
+        <v>-271.80292387399902</v>
+      </c>
+      <c r="EU80">
+        <v>385.90009531912602</v>
+      </c>
+      <c r="EV80">
+        <v>-59.3401862618718</v>
+      </c>
+      <c r="EW80">
+        <v>1.3797412911887801</v>
+      </c>
+      <c r="EX80">
+        <v>-221.62420305802499</v>
+      </c>
+      <c r="EY80">
+        <v>387.77148050259399</v>
+      </c>
+      <c r="EZ80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FA80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FB80">
+        <v>2.6594079242703801</v>
+      </c>
+      <c r="FC80">
+        <v>2.4554149965520602</v>
+      </c>
+      <c r="FD80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FE80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FF80">
+        <v>2.6594079242703801</v>
+      </c>
+      <c r="FG80">
+        <v>2.4554149965520602</v>
+      </c>
+      <c r="FH80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FI80">
+        <v>1.1227991967172699</v>
+      </c>
+      <c r="FJ80">
+        <v>2.6594079242703801</v>
+      </c>
+      <c r="FK80">
+        <v>2.4554149965520602</v>
+      </c>
+      <c r="FP80" t="e">
+        <f>IF(G80=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="81" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>152</v>
       </c>
@@ -32203,8 +37792,84 @@
       <c r="EM81">
         <v>0</v>
       </c>
+      <c r="EN81">
+        <v>59.0627040206098</v>
+      </c>
+      <c r="EO81">
+        <v>1.8968268042661101</v>
+      </c>
+      <c r="EP81">
+        <v>-249.31452465041301</v>
+      </c>
+      <c r="EQ81">
+        <v>447.10609900392899</v>
+      </c>
+      <c r="ER81">
+        <v>59.0627040206098</v>
+      </c>
+      <c r="ES81">
+        <v>1.8968268042661101</v>
+      </c>
+      <c r="ET81">
+        <v>-281.82014055125001</v>
+      </c>
+      <c r="EU81">
+        <v>411.20475619325202</v>
+      </c>
+      <c r="EV81">
+        <v>59.0627040206098</v>
+      </c>
+      <c r="EW81">
+        <v>1.8968268042661101</v>
+      </c>
+      <c r="EX81">
+        <v>-251.534235262739</v>
+      </c>
+      <c r="EY81">
+        <v>455.85542516238502</v>
+      </c>
+      <c r="EZ81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FA81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FB81">
+        <v>2.7791539386463699</v>
+      </c>
+      <c r="FC81">
+        <v>2.5659958202892401</v>
+      </c>
+      <c r="FD81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FE81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FF81">
+        <v>2.7791539386463699</v>
+      </c>
+      <c r="FG81">
+        <v>2.5659958202892401</v>
+      </c>
+      <c r="FH81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FI81">
+        <v>1.17324539993682</v>
+      </c>
+      <c r="FJ81">
+        <v>2.7791539386463699</v>
+      </c>
+      <c r="FK81">
+        <v>2.5659958202892401</v>
+      </c>
+      <c r="FP81" t="e">
+        <f>IF(G81=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="82" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>153</v>
       </c>
@@ -32622,8 +38287,84 @@
       <c r="EM82">
         <v>0</v>
       </c>
+      <c r="EN82">
+        <v>1696.25343228469</v>
+      </c>
+      <c r="EO82">
+        <v>73.346664638876902</v>
+      </c>
+      <c r="EP82">
+        <v>-7385.6472164194101</v>
+      </c>
+      <c r="EQ82">
+        <v>13273.173539596301</v>
+      </c>
+      <c r="ER82">
+        <v>1696.25343228469</v>
+      </c>
+      <c r="ES82">
+        <v>73.346664638876902</v>
+      </c>
+      <c r="ET82">
+        <v>-8362.6677220404199</v>
+      </c>
+      <c r="EU82">
+        <v>12219.4373865825</v>
+      </c>
+      <c r="EV82">
+        <v>1696.25343228469</v>
+      </c>
+      <c r="EW82">
+        <v>73.346664638876902</v>
+      </c>
+      <c r="EX82">
+        <v>-7450.3768262659696</v>
+      </c>
+      <c r="EY82">
+        <v>13533.8737884039</v>
+      </c>
+      <c r="EZ82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FA82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FB82">
+        <v>88.257845042927002</v>
+      </c>
+      <c r="FC82">
+        <v>81.488671910517496</v>
+      </c>
+      <c r="FD82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FE82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FF82">
+        <v>88.257845042927002</v>
+      </c>
+      <c r="FG82">
+        <v>81.488671910517496</v>
+      </c>
+      <c r="FH82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FI82">
+        <v>37.258263021767704</v>
+      </c>
+      <c r="FJ82">
+        <v>88.257845042927002</v>
+      </c>
+      <c r="FK82">
+        <v>81.488671910517496</v>
+      </c>
+      <c r="FP82" t="e">
+        <f>IF(G82=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="83" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>154</v>
       </c>
@@ -33041,8 +38782,84 @@
       <c r="EM83">
         <v>0</v>
       </c>
+      <c r="EN83">
+        <v>-32483.7691145022</v>
+      </c>
+      <c r="EO83">
+        <v>667.48293977464698</v>
+      </c>
+      <c r="EP83">
+        <v>-3821.2957500017001</v>
+      </c>
+      <c r="EQ83">
+        <v>72313.170703218493</v>
+      </c>
+      <c r="ER83">
+        <v>-32483.7691145022</v>
+      </c>
+      <c r="ES83">
+        <v>667.48293977464698</v>
+      </c>
+      <c r="ET83">
+        <v>-17862.444150389299</v>
+      </c>
+      <c r="EU83">
+        <v>60013.184853075902</v>
+      </c>
+      <c r="EV83">
+        <v>-32483.7691145022</v>
+      </c>
+      <c r="EW83">
+        <v>667.48293977464698</v>
+      </c>
+      <c r="EX83">
+        <v>-5206.76866479005</v>
+      </c>
+      <c r="EY83">
+        <v>76723.956210440796</v>
+      </c>
+      <c r="EZ83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FA83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FB83">
+        <v>211.991050391192</v>
+      </c>
+      <c r="FC83">
+        <v>195.759769517374</v>
+      </c>
+      <c r="FD83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FE83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FF83">
+        <v>211.991050391192</v>
+      </c>
+      <c r="FG83">
+        <v>195.759769517374</v>
+      </c>
+      <c r="FH83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FI83">
+        <v>89.338730173919799</v>
+      </c>
+      <c r="FJ83">
+        <v>211.991050391192</v>
+      </c>
+      <c r="FK83">
+        <v>195.759769517374</v>
+      </c>
+      <c r="FP83" t="e">
+        <f>IF(G83=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="84" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>155</v>
       </c>
@@ -33460,8 +39277,84 @@
       <c r="EM84">
         <v>0</v>
       </c>
+      <c r="EN84">
+        <v>-130.33662472821001</v>
+      </c>
+      <c r="EO84">
+        <v>-178.50710774851299</v>
+      </c>
+      <c r="EP84">
+        <v>-7775.7980598753902</v>
+      </c>
+      <c r="EQ84">
+        <v>16697.042201648001</v>
+      </c>
+      <c r="ER84">
+        <v>-130.33662472821001</v>
+      </c>
+      <c r="ES84">
+        <v>-178.50710774851299</v>
+      </c>
+      <c r="ET84">
+        <v>-9369.1844802941705</v>
+      </c>
+      <c r="EU84">
+        <v>15049.2745242278</v>
+      </c>
+      <c r="EV84">
+        <v>-130.33662472821001</v>
+      </c>
+      <c r="EW84">
+        <v>-178.50710774851299</v>
+      </c>
+      <c r="EX84">
+        <v>-7801.2063921089402</v>
+      </c>
+      <c r="EY84">
+        <v>17163.745653766298</v>
+      </c>
+      <c r="EZ84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FA84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FB84">
+        <v>588.71060810675306</v>
+      </c>
+      <c r="FC84">
+        <v>543.55117211118602</v>
+      </c>
+      <c r="FD84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FE84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FF84">
+        <v>588.71060810675306</v>
+      </c>
+      <c r="FG84">
+        <v>543.55117211118602</v>
+      </c>
+      <c r="FH84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FI84">
+        <v>248.56243315476399</v>
+      </c>
+      <c r="FJ84">
+        <v>588.71060810675306</v>
+      </c>
+      <c r="FK84">
+        <v>543.55117211118602</v>
+      </c>
+      <c r="FP84" t="e">
+        <f>IF(G84=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="85" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>156</v>
       </c>
@@ -33879,8 +39772,84 @@
       <c r="EM85">
         <v>0</v>
       </c>
+      <c r="EN85">
+        <v>-34196.340410951401</v>
+      </c>
+      <c r="EO85">
+        <v>2473.9477236940502</v>
+      </c>
+      <c r="EP85">
+        <v>-3959.4518178798298</v>
+      </c>
+      <c r="EQ85">
+        <v>75750.370477580203</v>
+      </c>
+      <c r="ER85">
+        <v>-34196.340410951401</v>
+      </c>
+      <c r="ES85">
+        <v>2473.9477236940502</v>
+      </c>
+      <c r="ET85">
+        <v>-18618.2399874039</v>
+      </c>
+      <c r="EU85">
+        <v>62855.672468986202</v>
+      </c>
+      <c r="EV85">
+        <v>-34196.340410951401</v>
+      </c>
+      <c r="EW85">
+        <v>2473.9477236940502</v>
+      </c>
+      <c r="EX85">
+        <v>-5305.7499355908203</v>
+      </c>
+      <c r="EY85">
+        <v>80367.536941585</v>
+      </c>
+      <c r="EZ85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FA85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FB85">
+        <v>712.46570739574202</v>
+      </c>
+      <c r="FC85">
+        <v>657.84248579789801</v>
+      </c>
+      <c r="FD85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FE85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FF85">
+        <v>712.46570739574202</v>
+      </c>
+      <c r="FG85">
+        <v>657.84248579789801</v>
+      </c>
+      <c r="FH85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FI85">
+        <v>300.65213543509498</v>
+      </c>
+      <c r="FJ85">
+        <v>712.46570739574202</v>
+      </c>
+      <c r="FK85">
+        <v>657.84248579789801</v>
+      </c>
+      <c r="FP85" t="e">
+        <f>IF(G85=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="86" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>157</v>
       </c>
@@ -34298,8 +40267,84 @@
       <c r="EM86">
         <v>0</v>
       </c>
+      <c r="EN86">
+        <v>1.94154364109416</v>
+      </c>
+      <c r="EO86">
+        <v>3.4336644287727897E-2</v>
+      </c>
+      <c r="EP86">
+        <v>-3.9236457915710301</v>
+      </c>
+      <c r="EQ86">
+        <v>7.1790736803411397</v>
+      </c>
+      <c r="ER86">
+        <v>1.94154364109416</v>
+      </c>
+      <c r="ES86">
+        <v>3.4336644287727897E-2</v>
+      </c>
+      <c r="ET86">
+        <v>-4.2518236738815398</v>
+      </c>
+      <c r="EU86">
+        <v>6.3011651921120704</v>
+      </c>
+      <c r="EV86">
+        <v>1.94154364109416</v>
+      </c>
+      <c r="EW86">
+        <v>3.4336644287727897E-2</v>
+      </c>
+      <c r="EX86">
+        <v>-3.9838897250067302</v>
+      </c>
+      <c r="EY86">
+        <v>7.3463395709698904</v>
+      </c>
+      <c r="EZ86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FA86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FB86">
+        <v>4.2617431009750302E-2</v>
+      </c>
+      <c r="FC86">
+        <v>3.9348896507394801E-2</v>
+      </c>
+      <c r="FD86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FE86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FF86">
+        <v>4.2617431009750302E-2</v>
+      </c>
+      <c r="FG86">
+        <v>3.9348896507394801E-2</v>
+      </c>
+      <c r="FH86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FI86">
+        <v>1.7990368365882501E-2</v>
+      </c>
+      <c r="FJ86">
+        <v>4.2617431009750302E-2</v>
+      </c>
+      <c r="FK86">
+        <v>3.9348896507394801E-2</v>
+      </c>
+      <c r="FP86" t="e">
+        <f>IF(G86=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="87" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>158</v>
       </c>
@@ -34717,8 +40762,84 @@
       <c r="EM87">
         <v>0</v>
       </c>
+      <c r="EN87">
+        <v>-0.60290556104454696</v>
+      </c>
+      <c r="EO87">
+        <v>2.3224602866710901E-2</v>
+      </c>
+      <c r="EP87">
+        <v>-3.3464015790616899</v>
+      </c>
+      <c r="EQ87">
+        <v>5.8064259559079003</v>
+      </c>
+      <c r="ER87">
+        <v>-0.60290556104454696</v>
+      </c>
+      <c r="ES87">
+        <v>2.3224602866710901E-2</v>
+      </c>
+      <c r="ET87">
+        <v>-4.0365561333572098</v>
+      </c>
+      <c r="EU87">
+        <v>5.7573742084802504</v>
+      </c>
+      <c r="EV87">
+        <v>-0.60290556104454696</v>
+      </c>
+      <c r="EW87">
+        <v>2.3224602866710901E-2</v>
+      </c>
+      <c r="EX87">
+        <v>-3.3411304359584602</v>
+      </c>
+      <c r="EY87">
+        <v>5.8832322240566697</v>
+      </c>
+      <c r="EZ87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FA87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FB87">
+        <v>4.0044118398788103E-2</v>
+      </c>
+      <c r="FC87">
+        <v>3.69725416054274E-2</v>
+      </c>
+      <c r="FD87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FE87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FF87">
+        <v>4.0044118398788103E-2</v>
+      </c>
+      <c r="FG87">
+        <v>3.69725416054274E-2</v>
+      </c>
+      <c r="FH87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FI87">
+        <v>1.69062917759727E-2</v>
+      </c>
+      <c r="FJ87">
+        <v>4.0044118398788103E-2</v>
+      </c>
+      <c r="FK87">
+        <v>3.69725416054274E-2</v>
+      </c>
+      <c r="FP87" t="e">
+        <f>IF(G87=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="88" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:172" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>159</v>
       </c>
@@ -35136,8 +41257,84 @@
       <c r="EM88">
         <v>0</v>
       </c>
+      <c r="EN88">
+        <v>0.27284296534754998</v>
+      </c>
+      <c r="EO88">
+        <v>2.7049145282996599E-2</v>
+      </c>
+      <c r="EP88">
+        <v>-3.5450774921231498</v>
+      </c>
+      <c r="EQ88">
+        <v>6.27886384970334</v>
+      </c>
+      <c r="ER88">
+        <v>0.27284296534754998</v>
+      </c>
+      <c r="ES88">
+        <v>2.7049145282996599E-2</v>
+      </c>
+      <c r="ET88">
+        <v>-4.1106469154548702</v>
+      </c>
+      <c r="EU88">
+        <v>5.9445361892266497</v>
+      </c>
+      <c r="EV88">
+        <v>0.27284296534754998</v>
+      </c>
+      <c r="EW88">
+        <v>2.7049145282996599E-2</v>
+      </c>
+      <c r="EX88">
+        <v>-3.5623553280630902</v>
+      </c>
+      <c r="EY88">
+        <v>6.38680451071727</v>
+      </c>
+      <c r="EZ88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FA88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FB88">
+        <v>4.0929801133228999E-2</v>
+      </c>
+      <c r="FC88">
+        <v>3.7790435435586502E-2</v>
+      </c>
+      <c r="FD88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FE88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FF88">
+        <v>4.0929801133228999E-2</v>
+      </c>
+      <c r="FG88">
+        <v>3.7790435435586502E-2</v>
+      </c>
+      <c r="FH88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FI88">
+        <v>1.7279409256687799E-2</v>
+      </c>
+      <c r="FJ88">
+        <v>4.0929801133228999E-2</v>
+      </c>
+      <c r="FK88">
+        <v>3.7790435435586502E-2</v>
+      </c>
+      <c r="FP88" t="e">
+        <f>IF(G88=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="89" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>160</v>
       </c>
@@ -35558,8 +41755,84 @@
       <c r="EM89">
         <v>0</v>
       </c>
+      <c r="EN89">
+        <v>81.230829203604998</v>
+      </c>
+      <c r="EO89">
+        <v>2.0698279801138701</v>
+      </c>
+      <c r="EP89">
+        <v>-200.46649492391199</v>
+      </c>
+      <c r="EQ89">
+        <v>512.74289848093804</v>
+      </c>
+      <c r="ER89">
+        <v>81.230829203604998</v>
+      </c>
+      <c r="ES89">
+        <v>2.0698279801138701</v>
+      </c>
+      <c r="ET89">
+        <v>-242.68775521347399</v>
+      </c>
+      <c r="EU89">
+        <v>429.18087387804599</v>
+      </c>
+      <c r="EV89">
+        <v>81.230829203604998</v>
+      </c>
+      <c r="EW89">
+        <v>2.0698279801138701</v>
+      </c>
+      <c r="EX89">
+        <v>-207.51694130662699</v>
+      </c>
+      <c r="EY89">
+        <v>532.09913933102496</v>
+      </c>
+      <c r="EZ89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FA89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FB89">
+        <v>2.8760715389683602</v>
+      </c>
+      <c r="FC89">
+        <v>2.65550538247934</v>
+      </c>
+      <c r="FD89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FE89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FF89">
+        <v>2.8760715389683602</v>
+      </c>
+      <c r="FG89">
+        <v>2.65550538247934</v>
+      </c>
+      <c r="FH89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FI89">
+        <v>1.2140200451992</v>
+      </c>
+      <c r="FJ89">
+        <v>2.8760715389683602</v>
+      </c>
+      <c r="FK89">
+        <v>2.65550538247934</v>
+      </c>
+      <c r="FP89" t="e">
+        <f>IF(G89=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="90" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>161</v>
       </c>
@@ -35980,8 +42253,84 @@
       <c r="EM90">
         <v>0</v>
       </c>
+      <c r="EN90">
+        <v>-129.25512606662201</v>
+      </c>
+      <c r="EO90">
+        <v>1.5253867325552599</v>
+      </c>
+      <c r="EP90">
+        <v>-213.71960582857599</v>
+      </c>
+      <c r="EQ90">
+        <v>488.56767212030502</v>
+      </c>
+      <c r="ER90">
+        <v>-129.25512606662201</v>
+      </c>
+      <c r="ES90">
+        <v>1.5253867325552599</v>
+      </c>
+      <c r="ET90">
+        <v>-287.09738037148497</v>
+      </c>
+      <c r="EU90">
+        <v>468.116237333914</v>
+      </c>
+      <c r="EV90">
+        <v>-129.25512606662201</v>
+      </c>
+      <c r="EW90">
+        <v>1.5253867325552599</v>
+      </c>
+      <c r="EX90">
+        <v>-215.49320701326101</v>
+      </c>
+      <c r="EY90">
+        <v>501.15819417441497</v>
+      </c>
+      <c r="EZ90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FA90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FB90">
+        <v>2.7573892762663901</v>
+      </c>
+      <c r="FC90">
+        <v>2.5459037047989699</v>
+      </c>
+      <c r="FD90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FE90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FF90">
+        <v>2.7573892762663901</v>
+      </c>
+      <c r="FG90">
+        <v>2.5459037047989699</v>
+      </c>
+      <c r="FH90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FI90">
+        <v>1.1640395204721099</v>
+      </c>
+      <c r="FJ90">
+        <v>2.7573892762663901</v>
+      </c>
+      <c r="FK90">
+        <v>2.5459037047989699</v>
+      </c>
+      <c r="FP90" t="e">
+        <f>IF(G90=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="91" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>162</v>
       </c>
@@ -36402,8 +42751,84 @@
       <c r="EM91">
         <v>0</v>
       </c>
+      <c r="EN91">
+        <v>-4.9898490204414001</v>
+      </c>
+      <c r="EO91">
+        <v>1.8468102840284499</v>
+      </c>
+      <c r="EP91">
+        <v>-205.89532352261699</v>
+      </c>
+      <c r="EQ91">
+        <v>502.84008047505301</v>
+      </c>
+      <c r="ER91">
+        <v>-4.9898490204414001</v>
+      </c>
+      <c r="ES91">
+        <v>1.8468102840284499</v>
+      </c>
+      <c r="ET91">
+        <v>-260.87912572273501</v>
+      </c>
+      <c r="EU91">
+        <v>445.12984122743399</v>
+      </c>
+      <c r="EV91">
+        <v>-4.9898490204414001</v>
+      </c>
+      <c r="EW91">
+        <v>1.8468102840284499</v>
+      </c>
+      <c r="EX91">
+        <v>-210.78423300228499</v>
+      </c>
+      <c r="EY91">
+        <v>519.42490204195894</v>
+      </c>
+      <c r="EZ91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FA91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FB91">
+        <v>2.82745610977797</v>
+      </c>
+      <c r="FC91">
+        <v>2.6106096037917101</v>
+      </c>
+      <c r="FD91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FE91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FF91">
+        <v>2.82745610977797</v>
+      </c>
+      <c r="FG91">
+        <v>2.6106096037917101</v>
+      </c>
+      <c r="FH91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FI91">
+        <v>1.19354668544457</v>
+      </c>
+      <c r="FJ91">
+        <v>2.82745610977797</v>
+      </c>
+      <c r="FK91">
+        <v>2.6106096037917101</v>
+      </c>
+      <c r="FP91" t="e">
+        <f>IF(G91=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="92" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>163</v>
       </c>
@@ -36824,8 +43249,84 @@
       <c r="EM92">
         <v>0</v>
       </c>
+      <c r="EN92">
+        <v>-300.36768349289201</v>
+      </c>
+      <c r="EO92">
+        <v>75.563189845279297</v>
+      </c>
+      <c r="EP92">
+        <v>-6141.7067361723302</v>
+      </c>
+      <c r="EQ92">
+        <v>15214.685102283</v>
+      </c>
+      <c r="ER92">
+        <v>-300.36768349289201</v>
+      </c>
+      <c r="ES92">
+        <v>75.563189845279297</v>
+      </c>
+      <c r="ET92">
+        <v>-7834.2992271461399</v>
+      </c>
+      <c r="EU92">
+        <v>13466.881469592099</v>
+      </c>
+      <c r="EV92">
+        <v>-300.36768349289201</v>
+      </c>
+      <c r="EW92">
+        <v>75.563189845279297</v>
+      </c>
+      <c r="EX92">
+        <v>-6290.4630593935999</v>
+      </c>
+      <c r="EY92">
+        <v>15723.9810385944</v>
+      </c>
+      <c r="EZ92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FA92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FB92">
+        <v>91.433723369198304</v>
+      </c>
+      <c r="FC92">
+        <v>84.421799739481898</v>
+      </c>
+      <c r="FD92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FE92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FF92">
+        <v>91.433723369198304</v>
+      </c>
+      <c r="FG92">
+        <v>84.421799739481898</v>
+      </c>
+      <c r="FH92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FI92">
+        <v>38.594388084674101</v>
+      </c>
+      <c r="FJ92">
+        <v>91.433723369198304</v>
+      </c>
+      <c r="FK92">
+        <v>84.421799739481898</v>
+      </c>
+      <c r="FP92" t="e">
+        <f>IF(G92=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="93" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>164</v>
       </c>
@@ -37246,8 +43747,84 @@
       <c r="EM93">
         <v>0</v>
       </c>
+      <c r="EN93">
+        <v>-510635.78837551299</v>
+      </c>
+      <c r="EO93">
+        <v>16128.620683244</v>
+      </c>
+      <c r="EP93">
+        <v>24638.5412450406</v>
+      </c>
+      <c r="EQ93">
+        <v>869057.76777445397</v>
+      </c>
+      <c r="ER93">
+        <v>-510635.78837551299</v>
+      </c>
+      <c r="ES93">
+        <v>16128.620683244</v>
+      </c>
+      <c r="ET93">
+        <v>-161126.88616406001</v>
+      </c>
+      <c r="EU93">
+        <v>691223.09852424904</v>
+      </c>
+      <c r="EV93">
+        <v>-510635.78837551299</v>
+      </c>
+      <c r="EW93">
+        <v>16128.620683244</v>
+      </c>
+      <c r="EX93">
+        <v>4562.8269048258499</v>
+      </c>
+      <c r="EY93">
+        <v>931275.90317388298</v>
+      </c>
+      <c r="EZ93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FA93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FB93">
+        <v>1606.3358533406999</v>
+      </c>
+      <c r="FC93">
+        <v>1483.44436045727</v>
+      </c>
+      <c r="FD93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FE93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FF93">
+        <v>1606.3358533406999</v>
+      </c>
+      <c r="FG93">
+        <v>1483.44436045727</v>
+      </c>
+      <c r="FH93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FI93">
+        <v>676.408104125254</v>
+      </c>
+      <c r="FJ93">
+        <v>1606.3358533406999</v>
+      </c>
+      <c r="FK93">
+        <v>1483.44436045727</v>
+      </c>
+      <c r="FP93" t="e">
+        <f>IF(G93=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="94" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>165</v>
       </c>
@@ -37668,8 +44245,84 @@
       <c r="EM94">
         <v>0</v>
       </c>
+      <c r="EN94">
+        <v>-2126.9577405058099</v>
+      </c>
+      <c r="EO94">
+        <v>-176.290582542122</v>
+      </c>
+      <c r="EP94">
+        <v>-6531.8575796283003</v>
+      </c>
+      <c r="EQ94">
+        <v>18638.5537643348</v>
+      </c>
+      <c r="ER94">
+        <v>-2126.9577405058099</v>
+      </c>
+      <c r="ES94">
+        <v>-176.290582542122</v>
+      </c>
+      <c r="ET94">
+        <v>-8840.8159853999096</v>
+      </c>
+      <c r="EU94">
+        <v>16296.718607237401</v>
+      </c>
+      <c r="EV94">
+        <v>-2126.9577405058099</v>
+      </c>
+      <c r="EW94">
+        <v>-176.290582542122</v>
+      </c>
+      <c r="EX94">
+        <v>-6641.2926252365696</v>
+      </c>
+      <c r="EY94">
+        <v>19353.8529039569</v>
+      </c>
+      <c r="EZ94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FA94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FB94">
+        <v>591.88648643302497</v>
+      </c>
+      <c r="FC94">
+        <v>546.48429994014998</v>
+      </c>
+      <c r="FD94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FE94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FF94">
+        <v>591.88648643302497</v>
+      </c>
+      <c r="FG94">
+        <v>546.48429994014998</v>
+      </c>
+      <c r="FH94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FI94">
+        <v>249.898558217671</v>
+      </c>
+      <c r="FJ94">
+        <v>591.88648643302497</v>
+      </c>
+      <c r="FK94">
+        <v>546.48429994014998</v>
+      </c>
+      <c r="FP94" t="e">
+        <f>IF(G94=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="95" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>166</v>
       </c>
@@ -38090,8 +44743,84 @@
       <c r="EM95">
         <v>0</v>
       </c>
+      <c r="EN95">
+        <v>-512348.35967196198</v>
+      </c>
+      <c r="EO95">
+        <v>17935.085467163401</v>
+      </c>
+      <c r="EP95">
+        <v>24500.385177162501</v>
+      </c>
+      <c r="EQ95">
+        <v>872494.96754881495</v>
+      </c>
+      <c r="ER95">
+        <v>-512348.35967196198</v>
+      </c>
+      <c r="ES95">
+        <v>17935.085467163401</v>
+      </c>
+      <c r="ET95">
+        <v>-161882.68200107501</v>
+      </c>
+      <c r="EU95">
+        <v>694065.58614015905</v>
+      </c>
+      <c r="EV95">
+        <v>-512348.35967196198</v>
+      </c>
+      <c r="EW95">
+        <v>17935.085467163401</v>
+      </c>
+      <c r="EX95">
+        <v>4463.8456340250696</v>
+      </c>
+      <c r="EY95">
+        <v>934919.48390502797</v>
+      </c>
+      <c r="EZ95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FA95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FB95">
+        <v>2106.8105103452499</v>
+      </c>
+      <c r="FC95">
+        <v>1945.5270767377899</v>
+      </c>
+      <c r="FD95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FE95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FF95">
+        <v>2106.8105103452499</v>
+      </c>
+      <c r="FG95">
+        <v>1945.5270767377899</v>
+      </c>
+      <c r="FH95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FI95">
+        <v>887.72150938642903</v>
+      </c>
+      <c r="FJ95">
+        <v>2106.8105103452499</v>
+      </c>
+      <c r="FK95">
+        <v>1945.5270767377899</v>
+      </c>
+      <c r="FP95" t="e">
+        <f>IF(G95=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="96" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>167</v>
       </c>
@@ -38512,8 +45241,84 @@
       <c r="EM96">
         <v>0</v>
       </c>
+      <c r="EN96">
+        <v>1.05051907900921</v>
+      </c>
+      <c r="EO96">
+        <v>3.1990900152716301E-2</v>
+      </c>
+      <c r="EP96">
+        <v>-2.9685152891447202</v>
+      </c>
+      <c r="EQ96">
+        <v>7.5531413328886297</v>
+      </c>
+      <c r="ER96">
+        <v>1.05051907900921</v>
+      </c>
+      <c r="ES96">
+        <v>3.1990900152716301E-2</v>
+      </c>
+      <c r="ET96">
+        <v>-3.6145979977776199</v>
+      </c>
+      <c r="EU96">
+        <v>6.3650496432510399</v>
+      </c>
+      <c r="EV96">
+        <v>1.05051907900921</v>
+      </c>
+      <c r="EW96">
+        <v>3.1990900152716301E-2</v>
+      </c>
+      <c r="EX96">
+        <v>-3.0687832433550102</v>
+      </c>
+      <c r="EY96">
+        <v>7.8341729614651303</v>
+      </c>
+      <c r="EZ96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FA96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FB96">
+        <v>4.2883531945220897E-2</v>
+      </c>
+      <c r="FC96">
+        <v>3.95947753242007E-2</v>
+      </c>
+      <c r="FD96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FE96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FF96">
+        <v>4.2883531945220897E-2</v>
+      </c>
+      <c r="FG96">
+        <v>3.95947753242007E-2</v>
+      </c>
+      <c r="FH96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FI96">
+        <v>1.81016731000548E-2</v>
+      </c>
+      <c r="FJ96">
+        <v>4.2883531945220897E-2</v>
+      </c>
+      <c r="FK96">
+        <v>3.95947753242007E-2</v>
+      </c>
+      <c r="FP96" t="e">
+        <f>IF(G96=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="97" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>168</v>
       </c>
@@ -38934,8 +45739,84 @@
       <c r="EM97">
         <v>0</v>
       </c>
+      <c r="EN97">
+        <v>-1.6199114033373101</v>
+      </c>
+      <c r="EO97">
+        <v>2.50835865437837E-2</v>
+      </c>
+      <c r="EP97">
+        <v>-3.13665720293795</v>
+      </c>
+      <c r="EQ97">
+        <v>7.2464307910466896</v>
+      </c>
+      <c r="ER97">
+        <v>-1.6199114033373101</v>
+      </c>
+      <c r="ES97">
+        <v>2.50835865437837E-2</v>
+      </c>
+      <c r="ET97">
+        <v>-4.1780218926369601</v>
+      </c>
+      <c r="EU97">
+        <v>6.85902170556892</v>
+      </c>
+      <c r="EV97">
+        <v>-1.6199114033373101</v>
+      </c>
+      <c r="EW97">
+        <v>2.50835865437837E-2</v>
+      </c>
+      <c r="EX97">
+        <v>-3.1699779432624</v>
+      </c>
+      <c r="EY97">
+        <v>7.4416259005805001</v>
+      </c>
+      <c r="EZ97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FA97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FB97">
+        <v>4.1377812802932602E-2</v>
+      </c>
+      <c r="FC97">
+        <v>3.8204261355616699E-2</v>
+      </c>
+      <c r="FD97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FE97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FF97">
+        <v>4.1377812802932602E-2</v>
+      </c>
+      <c r="FG97">
+        <v>3.8204261355616699E-2</v>
+      </c>
+      <c r="FH97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FI97">
+        <v>1.7467571330254901E-2</v>
+      </c>
+      <c r="FJ97">
+        <v>4.1377812802932602E-2</v>
+      </c>
+      <c r="FK97">
+        <v>3.8204261355616699E-2</v>
+      </c>
+      <c r="FP97" t="e">
+        <f>IF(G97=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="98" spans="4:143" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:172" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>169</v>
       </c>
@@ -39355,6 +46236,82 @@
       </c>
       <c r="EM98">
         <v>0</v>
+      </c>
+      <c r="EN98">
+        <v>-0.70080263992329594</v>
+      </c>
+      <c r="EO98">
+        <v>2.7460945741706301E-2</v>
+      </c>
+      <c r="EP98">
+        <v>-3.0787861190485999</v>
+      </c>
+      <c r="EQ98">
+        <v>7.3519944253378604</v>
+      </c>
+      <c r="ER98">
+        <v>-0.70080263992329594</v>
+      </c>
+      <c r="ES98">
+        <v>2.7460945741706301E-2</v>
+      </c>
+      <c r="ET98">
+        <v>-3.9841026565042701</v>
+      </c>
+      <c r="EU98">
+        <v>6.6890064011603299</v>
+      </c>
+      <c r="EV98">
+        <v>-0.70080263992329594</v>
+      </c>
+      <c r="EW98">
+        <v>2.7460945741706301E-2</v>
+      </c>
+      <c r="EX98">
+        <v>-3.1351487514482699</v>
+      </c>
+      <c r="EY98">
+        <v>7.5767327479958304</v>
+      </c>
+      <c r="EZ98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FA98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FB98">
+        <v>4.1896051217325397E-2</v>
+      </c>
+      <c r="FC98">
+        <v>3.8682848453323898E-2</v>
+      </c>
+      <c r="FD98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FE98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FF98">
+        <v>4.1896051217325397E-2</v>
+      </c>
+      <c r="FG98">
+        <v>3.8682848453323898E-2</v>
+      </c>
+      <c r="FH98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FI98">
+        <v>1.7685816477384601E-2</v>
+      </c>
+      <c r="FJ98">
+        <v>4.1896051217325397E-2</v>
+      </c>
+      <c r="FK98">
+        <v>3.8682848453323898E-2</v>
+      </c>
+      <c r="FP98" t="e">
+        <f>IF(G98=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
